--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_12_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2574776.629647566</v>
+        <v>-2577471.979365968</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9491371.480771227</v>
+        <v>9491371.480771221</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>6.876045741711437</v>
+        <v>5.309829763041574</v>
       </c>
       <c r="V9" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3.334980354192922</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D10" t="n">
         <v>6.876045741711437</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.0568805807625</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>295.991919786624</v>
       </c>
       <c r="I11" t="n">
-        <v>46.78749010800652</v>
+        <v>46.78749010800674</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>112.26760469423</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>204.5096108339154</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0059843530867</v>
+        <v>251.0059843530868</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>151.5205374675925</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.443359757879779</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>135.0717834270508</v>
       </c>
       <c r="H12" t="n">
-        <v>90.29527894253182</v>
+        <v>90.29527894253184</v>
       </c>
       <c r="I12" t="n">
-        <v>11.18123886521053</v>
+        <v>11.18123886521059</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.10329306879595</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.2940338131473</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.17560498787297</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>91.65811123200645</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>74.13804005500855</v>
       </c>
       <c r="T13" t="n">
-        <v>219.8079869882842</v>
+        <v>219.8079869882843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2151450700229</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,10 +1613,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
         <v>410.9321492551762</v>
@@ -1625,7 +1625,7 @@
         <v>294.714515098463</v>
       </c>
       <c r="I14" t="n">
-        <v>41.97878567833999</v>
+        <v>41.97878567834006</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>109.4252896124317</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9635994561612</v>
+        <v>203.9635994561613</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9960058470398</v>
+        <v>250.9960058470399</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>65.57688900882994</v>
+        <v>53.37761961503606</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I15" t="n">
-        <v>9.850416382685038</v>
+        <v>10.33959683028451</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4891804475996651</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>128.247100173363</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0304839279157</v>
+        <v>142.2083565925207</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7965858613387</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.49303052510928</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.14238774566138</v>
+        <v>89.14238774566145</v>
       </c>
       <c r="S16" t="n">
-        <v>109.325479692976</v>
+        <v>189.8505094883268</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5689271341431</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2120932420976</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>334.7437533550371</v>
       </c>
       <c r="F17" t="n">
-        <v>359.6894290244867</v>
+        <v>359.6894290244868</v>
       </c>
       <c r="G17" t="n">
         <v>363.7455325379515</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.23867289520699</v>
+        <v>62.23867289520702</v>
       </c>
       <c r="T17" t="n">
         <v>156.7769827389366</v>
@@ -1901,13 +1901,13 @@
         <v>203.8093891298151</v>
       </c>
       <c r="V17" t="n">
-        <v>280.5656417529102</v>
+        <v>280.5656417529103</v>
       </c>
       <c r="W17" t="n">
-        <v>302.0543520001883</v>
+        <v>302.0543520001884</v>
       </c>
       <c r="X17" t="n">
-        <v>322.5444839612443</v>
+        <v>322.5444839612444</v>
       </c>
       <c r="Y17" t="n">
         <v>339.0513219388289</v>
@@ -1941,7 +1941,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I18" t="n">
-        <v>9.850416382685038</v>
+        <v>10.33959683028451</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4891804475996651</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>128.247100173363</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.6453634647126</v>
+        <v>132.6453634647127</v>
       </c>
       <c r="C19" t="n">
         <v>120.0602043814032</v>
@@ -2008,19 +2008,19 @@
         <v>101.4288563009877</v>
       </c>
       <c r="E19" t="n">
-        <v>99.2473459293445</v>
+        <v>99.24734592934453</v>
       </c>
       <c r="F19" t="n">
-        <v>98.23443130570658</v>
+        <v>98.23443130570661</v>
       </c>
       <c r="G19" t="n">
         <v>118.8438672106911</v>
       </c>
       <c r="H19" t="n">
-        <v>97.60996914411402</v>
+        <v>97.60996914411345</v>
       </c>
       <c r="I19" t="n">
-        <v>49.30641380788462</v>
+        <v>49.30641380788465</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95577102843671</v>
+        <v>41.95577102843674</v>
       </c>
       <c r="S19" t="n">
         <v>142.663892771102</v>
@@ -2059,16 +2059,16 @@
         <v>239.025476524873</v>
       </c>
       <c r="V19" t="n">
-        <v>204.9510266066033</v>
+        <v>204.9510266066034</v>
       </c>
       <c r="W19" t="n">
-        <v>239.3363816193663</v>
+        <v>239.3363816193664</v>
       </c>
       <c r="X19" t="n">
         <v>178.5230386718125</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.3980366348701</v>
+        <v>171.3980366348702</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>334.7437533550371</v>
       </c>
       <c r="F20" t="n">
-        <v>359.6894290244867</v>
+        <v>359.6894290244868</v>
       </c>
       <c r="G20" t="n">
         <v>363.7455325379515</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.23867289520699</v>
+        <v>62.238672895207</v>
       </c>
       <c r="T20" t="n">
         <v>156.7769827389366</v>
@@ -2138,13 +2138,13 @@
         <v>203.8093891298151</v>
       </c>
       <c r="V20" t="n">
-        <v>280.5656417529102</v>
+        <v>280.5656417529103</v>
       </c>
       <c r="W20" t="n">
-        <v>302.0543520001883</v>
+        <v>302.0543520001884</v>
       </c>
       <c r="X20" t="n">
-        <v>322.5444839612443</v>
+        <v>322.5444839612444</v>
       </c>
       <c r="Y20" t="n">
         <v>339.0513219388289</v>
@@ -2178,7 +2178,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I21" t="n">
-        <v>10.33959683028452</v>
+        <v>10.33959683028586</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.6453634647126</v>
+        <v>132.6453634647127</v>
       </c>
       <c r="C22" t="n">
         <v>120.0602043814032</v>
@@ -2245,19 +2245,19 @@
         <v>101.4288563009877</v>
       </c>
       <c r="E22" t="n">
-        <v>99.2473459293445</v>
+        <v>99.24734592934453</v>
       </c>
       <c r="F22" t="n">
-        <v>98.23443130570658</v>
+        <v>98.23443130570661</v>
       </c>
       <c r="G22" t="n">
-        <v>118.843867210691</v>
+        <v>118.8438672106911</v>
       </c>
       <c r="H22" t="n">
-        <v>97.60996914411402</v>
+        <v>97.60996914411405</v>
       </c>
       <c r="I22" t="n">
-        <v>49.30641380788462</v>
+        <v>49.30641380788463</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95577102843671</v>
+        <v>41.95577102843673</v>
       </c>
       <c r="S22" t="n">
         <v>142.663892771102</v>
@@ -2296,16 +2296,16 @@
         <v>239.025476524873</v>
       </c>
       <c r="V22" t="n">
-        <v>204.9510266066033</v>
+        <v>204.9510266066034</v>
       </c>
       <c r="W22" t="n">
-        <v>239.3363816193663</v>
+        <v>239.3363816193664</v>
       </c>
       <c r="X22" t="n">
         <v>178.5230386718125</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.3980366348701</v>
+        <v>171.3980366348702</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>334.7437533550371</v>
       </c>
       <c r="F23" t="n">
-        <v>359.6894290244867</v>
+        <v>359.6894290244868</v>
       </c>
       <c r="G23" t="n">
         <v>363.7455325379515</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.23867289520699</v>
+        <v>62.23867289520702</v>
       </c>
       <c r="T23" t="n">
         <v>156.7769827389366</v>
@@ -2375,13 +2375,13 @@
         <v>203.8093891298151</v>
       </c>
       <c r="V23" t="n">
-        <v>280.5656417529102</v>
+        <v>280.5656417529103</v>
       </c>
       <c r="W23" t="n">
-        <v>302.0543520001883</v>
+        <v>302.0543520001884</v>
       </c>
       <c r="X23" t="n">
-        <v>322.5444839612443</v>
+        <v>322.5444839612444</v>
       </c>
       <c r="Y23" t="n">
         <v>339.0513219388289</v>
@@ -2415,7 +2415,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I24" t="n">
-        <v>10.33959683028452</v>
+        <v>10.33959683028451</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.6453634647126</v>
+        <v>132.6453634647127</v>
       </c>
       <c r="C25" t="n">
         <v>120.0602043814032</v>
@@ -2482,19 +2482,19 @@
         <v>101.4288563009877</v>
       </c>
       <c r="E25" t="n">
-        <v>99.2473459293445</v>
+        <v>99.24734592934453</v>
       </c>
       <c r="F25" t="n">
-        <v>98.23443130570658</v>
+        <v>98.23443130570661</v>
       </c>
       <c r="G25" t="n">
-        <v>118.843867210691</v>
+        <v>118.8438672106911</v>
       </c>
       <c r="H25" t="n">
-        <v>97.60996914411402</v>
+        <v>97.60996914411405</v>
       </c>
       <c r="I25" t="n">
-        <v>49.30641380788462</v>
+        <v>49.30641380788465</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95577102843671</v>
+        <v>41.95577102843674</v>
       </c>
       <c r="S25" t="n">
         <v>142.663892771102</v>
@@ -2533,16 +2533,16 @@
         <v>239.025476524873</v>
       </c>
       <c r="V25" t="n">
-        <v>204.9510266066033</v>
+        <v>204.9510266066034</v>
       </c>
       <c r="W25" t="n">
-        <v>239.3363816193663</v>
+        <v>239.3363816193664</v>
       </c>
       <c r="X25" t="n">
         <v>178.5230386718125</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.3980366348701</v>
+        <v>171.3980366348702</v>
       </c>
     </row>
     <row r="26">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.5472249462559</v>
+        <v>335.5472249462558</v>
       </c>
       <c r="C26" t="n">
-        <v>318.0862750537829</v>
+        <v>318.0862750537828</v>
       </c>
       <c r="D26" t="n">
-        <v>307.4964249034583</v>
+        <v>307.4964249034582</v>
       </c>
       <c r="E26" t="n">
-        <v>334.7437533550371</v>
+        <v>334.743753355037</v>
       </c>
       <c r="F26" t="n">
         <v>359.6894290244867</v>
       </c>
       <c r="G26" t="n">
-        <v>363.7455325379515</v>
+        <v>363.7455325379514</v>
       </c>
       <c r="H26" t="n">
         <v>247.5278983812383</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.23867289520699</v>
+        <v>62.23867289520693</v>
       </c>
       <c r="T26" t="n">
-        <v>156.7769827389366</v>
+        <v>156.7769827389365</v>
       </c>
       <c r="U26" t="n">
         <v>203.8093891298151</v>
@@ -2621,7 +2621,7 @@
         <v>322.5444839612443</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.0513219388289</v>
+        <v>339.0513219388288</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>132.6453634647126</v>
       </c>
       <c r="C28" t="n">
-        <v>120.0602043814032</v>
+        <v>120.0602043814031</v>
       </c>
       <c r="D28" t="n">
-        <v>101.4288563009877</v>
+        <v>101.4288563009876</v>
       </c>
       <c r="E28" t="n">
-        <v>99.2473459293445</v>
+        <v>99.24734592934445</v>
       </c>
       <c r="F28" t="n">
-        <v>98.23443130570658</v>
+        <v>98.23443130570652</v>
       </c>
       <c r="G28" t="n">
-        <v>118.8438672106911</v>
+        <v>118.843867210691</v>
       </c>
       <c r="H28" t="n">
-        <v>97.60996914411402</v>
+        <v>97.60996914411396</v>
       </c>
       <c r="I28" t="n">
-        <v>49.30641380788462</v>
+        <v>49.30641380788456</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95577102843671</v>
+        <v>41.95577102843666</v>
       </c>
       <c r="S28" t="n">
         <v>142.663892771102</v>
       </c>
       <c r="T28" t="n">
-        <v>172.3823104169184</v>
+        <v>172.3823104169183</v>
       </c>
       <c r="U28" t="n">
-        <v>239.025476524873</v>
+        <v>239.0254765248729</v>
       </c>
       <c r="V28" t="n">
         <v>204.9510266066033</v>
@@ -2776,7 +2776,7 @@
         <v>239.3363816193663</v>
       </c>
       <c r="X28" t="n">
-        <v>178.5230386718125</v>
+        <v>178.5230386718124</v>
       </c>
       <c r="Y28" t="n">
         <v>171.3980366348701</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.5472249462559</v>
+        <v>335.5472249462558</v>
       </c>
       <c r="C29" t="n">
-        <v>318.0862750537829</v>
+        <v>318.0862750537828</v>
       </c>
       <c r="D29" t="n">
-        <v>307.4964249034583</v>
+        <v>307.4964249034582</v>
       </c>
       <c r="E29" t="n">
-        <v>334.7437533550371</v>
+        <v>334.743753355037</v>
       </c>
       <c r="F29" t="n">
         <v>359.6894290244867</v>
       </c>
       <c r="G29" t="n">
-        <v>363.7455325379515</v>
+        <v>363.7455325379514</v>
       </c>
       <c r="H29" t="n">
         <v>247.5278983812383</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.23867289520699</v>
+        <v>62.23867289520692</v>
       </c>
       <c r="T29" t="n">
-        <v>156.7769827389366</v>
+        <v>156.7769827389365</v>
       </c>
       <c r="U29" t="n">
         <v>203.8093891298151</v>
@@ -2858,7 +2858,7 @@
         <v>322.5444839612443</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.0513219388289</v>
+        <v>339.0513219388288</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2950,25 @@
         <v>132.6453634647126</v>
       </c>
       <c r="C31" t="n">
-        <v>120.0602043814032</v>
+        <v>120.0602043814031</v>
       </c>
       <c r="D31" t="n">
-        <v>101.4288563009877</v>
+        <v>101.4288563009876</v>
       </c>
       <c r="E31" t="n">
-        <v>99.2473459293445</v>
+        <v>99.24734592934526</v>
       </c>
       <c r="F31" t="n">
-        <v>98.23443130570658</v>
+        <v>98.23443130570652</v>
       </c>
       <c r="G31" t="n">
-        <v>118.8438672106911</v>
+        <v>118.843867210691</v>
       </c>
       <c r="H31" t="n">
-        <v>97.60996914411402</v>
+        <v>97.60996914411396</v>
       </c>
       <c r="I31" t="n">
-        <v>49.30641380788462</v>
+        <v>49.30641380788455</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95577102843671</v>
+        <v>41.95577102843665</v>
       </c>
       <c r="S31" t="n">
         <v>142.663892771102</v>
       </c>
       <c r="T31" t="n">
-        <v>172.3823104169184</v>
+        <v>172.3823104169183</v>
       </c>
       <c r="U31" t="n">
         <v>239.0254765248729</v>
@@ -3013,7 +3013,7 @@
         <v>239.3363816193663</v>
       </c>
       <c r="X31" t="n">
-        <v>178.5230386718125</v>
+        <v>178.5230386718124</v>
       </c>
       <c r="Y31" t="n">
         <v>171.3980366348701</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.23867289520694</v>
+        <v>62.23867289520697</v>
       </c>
       <c r="T32" t="n">
-        <v>156.7769827389365</v>
+        <v>156.7769827389366</v>
       </c>
       <c r="U32" t="n">
         <v>203.8093891298151</v>
@@ -3126,7 +3126,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I33" t="n">
-        <v>10.33959683028453</v>
+        <v>10.33959683028449</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>132.6453634647126</v>
       </c>
       <c r="C34" t="n">
-        <v>120.0602043814031</v>
+        <v>120.0602043814032</v>
       </c>
       <c r="D34" t="n">
-        <v>101.4288563009876</v>
+        <v>101.4288563009877</v>
       </c>
       <c r="E34" t="n">
-        <v>99.24734592934445</v>
+        <v>99.24734592934449</v>
       </c>
       <c r="F34" t="n">
-        <v>98.23443130570652</v>
+        <v>98.23443130570656</v>
       </c>
       <c r="G34" t="n">
         <v>118.843867210691</v>
       </c>
       <c r="H34" t="n">
-        <v>97.60996914411396</v>
+        <v>97.609969144114</v>
       </c>
       <c r="I34" t="n">
-        <v>49.30641380788456</v>
+        <v>49.3064138078846</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95577102843666</v>
+        <v>41.9557710284367</v>
       </c>
       <c r="S34" t="n">
         <v>142.663892771102</v>
       </c>
       <c r="T34" t="n">
-        <v>172.3823104169183</v>
+        <v>172.3823104169184</v>
       </c>
       <c r="U34" t="n">
         <v>239.0254765248729</v>
@@ -3250,7 +3250,7 @@
         <v>239.3363816193663</v>
       </c>
       <c r="X34" t="n">
-        <v>178.5230386718124</v>
+        <v>178.5230386718125</v>
       </c>
       <c r="Y34" t="n">
         <v>171.3980366348701</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.23867289520694</v>
+        <v>62.23867289520697</v>
       </c>
       <c r="T35" t="n">
-        <v>156.7769827389365</v>
+        <v>156.7769827389366</v>
       </c>
       <c r="U35" t="n">
         <v>203.8093891298151</v>
@@ -3363,7 +3363,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I36" t="n">
-        <v>10.33959683028453</v>
+        <v>10.33959683028451</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>132.6453634647126</v>
       </c>
       <c r="C37" t="n">
-        <v>120.0602043814031</v>
+        <v>120.0602043814032</v>
       </c>
       <c r="D37" t="n">
-        <v>101.4288563009876</v>
+        <v>101.4288563009877</v>
       </c>
       <c r="E37" t="n">
-        <v>99.24734592934445</v>
+        <v>99.24734592934449</v>
       </c>
       <c r="F37" t="n">
-        <v>98.23443130570652</v>
+        <v>98.23443130570656</v>
       </c>
       <c r="G37" t="n">
         <v>118.843867210691</v>
       </c>
       <c r="H37" t="n">
-        <v>97.60996914411396</v>
+        <v>97.609969144114</v>
       </c>
       <c r="I37" t="n">
-        <v>49.30641380788456</v>
+        <v>49.3064138078846</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95577102843666</v>
+        <v>41.95577102843669</v>
       </c>
       <c r="S37" t="n">
         <v>142.663892771102</v>
@@ -3487,7 +3487,7 @@
         <v>239.3363816193663</v>
       </c>
       <c r="X37" t="n">
-        <v>178.5230386718124</v>
+        <v>178.5230386718125</v>
       </c>
       <c r="Y37" t="n">
         <v>171.3980366348701</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9557710284367</v>
+        <v>41.95577102843669</v>
       </c>
       <c r="S40" t="n">
         <v>142.663892771102</v>
       </c>
       <c r="T40" t="n">
-        <v>172.3823104169184</v>
+        <v>172.3823104169183</v>
       </c>
       <c r="U40" t="n">
         <v>239.0254765248729</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.23867289520698</v>
+        <v>62.23867289520697</v>
       </c>
       <c r="T41" t="n">
         <v>156.7769827389366</v>
@@ -3904,16 +3904,16 @@
         <v>101.4288563009877</v>
       </c>
       <c r="E43" t="n">
-        <v>99.2473459293445</v>
+        <v>99.24734592934449</v>
       </c>
       <c r="F43" t="n">
-        <v>98.23443130570658</v>
+        <v>98.23443130570656</v>
       </c>
       <c r="G43" t="n">
-        <v>118.8438672106911</v>
+        <v>118.843867210691</v>
       </c>
       <c r="H43" t="n">
-        <v>97.60996914411402</v>
+        <v>97.609969144114</v>
       </c>
       <c r="I43" t="n">
         <v>49.3064138078846</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95577102843671</v>
+        <v>41.9557710284367</v>
       </c>
       <c r="S43" t="n">
         <v>142.663892771102</v>
@@ -3952,7 +3952,7 @@
         <v>172.3823104169184</v>
       </c>
       <c r="U43" t="n">
-        <v>239.025476524873</v>
+        <v>239.0254765248729</v>
       </c>
       <c r="V43" t="n">
         <v>204.9510266066033</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.23867289520698</v>
+        <v>62.23867289520696</v>
       </c>
       <c r="T44" t="n">
-        <v>156.7769827389366</v>
+        <v>156.7769827389365</v>
       </c>
       <c r="U44" t="n">
         <v>203.8093891298151</v>
@@ -4074,7 +4074,7 @@
         <v>89.65073864289417</v>
       </c>
       <c r="I45" t="n">
-        <v>10.33959683028451</v>
+        <v>10.33959683028452</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>132.6453634647126</v>
       </c>
       <c r="C46" t="n">
-        <v>120.0602043814032</v>
+        <v>120.0602043814031</v>
       </c>
       <c r="D46" t="n">
         <v>101.4288563009877</v>
       </c>
       <c r="E46" t="n">
-        <v>99.2473459293445</v>
+        <v>99.24734592934448</v>
       </c>
       <c r="F46" t="n">
-        <v>98.23443130570658</v>
+        <v>98.23443130570655</v>
       </c>
       <c r="G46" t="n">
         <v>118.843867210691</v>
       </c>
       <c r="H46" t="n">
-        <v>97.60996914411402</v>
+        <v>97.60996914411399</v>
       </c>
       <c r="I46" t="n">
-        <v>49.30641380788462</v>
+        <v>49.30641380788458</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95577102843671</v>
+        <v>41.95577102843669</v>
       </c>
       <c r="S46" t="n">
         <v>142.663892771102</v>
       </c>
       <c r="T46" t="n">
-        <v>172.3823104169184</v>
+        <v>172.3823104169183</v>
       </c>
       <c r="U46" t="n">
-        <v>239.025476524873</v>
+        <v>239.0254765248729</v>
       </c>
       <c r="V46" t="n">
         <v>204.9510266066033</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="F8" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="C8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="D8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="E8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>7.495584408540386</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.5500836593369149</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
@@ -4823,31 +4823,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.2497170613261</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="C9" t="n">
-        <v>8.2497170613261</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="D9" t="n">
         <v>8.2497170613261</v>
       </c>
       <c r="E9" t="n">
-        <v>8.2497170613261</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="F9" t="n">
-        <v>8.2497170613261</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="G9" t="n">
         <v>1.304216312122629</v>
@@ -4884,22 +4884,22 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L9" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M9" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N9" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O9" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="P9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
@@ -4914,19 +4914,19 @@
         <v>27.50418296684575</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="V9" t="n">
-        <v>15.19521781052957</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="W9" t="n">
-        <v>8.2497170613261</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="X9" t="n">
-        <v>8.2497170613261</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.2497170613261</v>
+        <v>22.14071855973305</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>24.75525293138463</v>
+      </c>
+      <c r="C10" t="n">
         <v>17.80975218218115</v>
       </c>
-      <c r="C10" t="n">
-        <v>14.44108515774386</v>
-      </c>
       <c r="D10" t="n">
-        <v>7.495584408540386</v>
+        <v>10.86425143297768</v>
       </c>
       <c r="E10" t="n">
-        <v>7.495584408540386</v>
+        <v>10.86425143297768</v>
       </c>
       <c r="F10" t="n">
         <v>7.495584408540386</v>
@@ -4966,7 +4966,7 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
         <v>13.8896123982571</v>
@@ -4999,13 +4999,13 @@
         <v>24.75525293138463</v>
       </c>
       <c r="W10" t="n">
-        <v>17.80975218218115</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="X10" t="n">
-        <v>17.80975218218115</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.80975218218115</v>
+        <v>24.75525293138463</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2049.687608239351</v>
+        <v>1522.474470324351</v>
       </c>
       <c r="C11" t="n">
-        <v>1680.72509129894</v>
+        <v>1153.51195338394</v>
       </c>
       <c r="D11" t="n">
-        <v>1322.459392692189</v>
+        <v>795.2462547771893</v>
       </c>
       <c r="E11" t="n">
-        <v>936.6711400939448</v>
+        <v>409.4580021789449</v>
       </c>
       <c r="F11" t="n">
-        <v>525.6852353043372</v>
+        <v>409.4580021789449</v>
       </c>
       <c r="G11" t="n">
-        <v>110.4762650207387</v>
+        <v>409.4580021789449</v>
       </c>
       <c r="H11" t="n">
-        <v>110.4762650207387</v>
+        <v>110.4762650207389</v>
       </c>
       <c r="I11" t="n">
-        <v>63.21617400255032</v>
+        <v>63.21617400255025</v>
       </c>
       <c r="J11" t="n">
-        <v>240.7389105050001</v>
+        <v>240.7389105049997</v>
       </c>
       <c r="K11" t="n">
-        <v>557.5379927460096</v>
+        <v>557.5379927460092</v>
       </c>
       <c r="L11" t="n">
-        <v>987.4570294150151</v>
+        <v>987.4570294150142</v>
       </c>
       <c r="M11" t="n">
-        <v>1497.49423168339</v>
+        <v>1497.494231683389</v>
       </c>
       <c r="N11" t="n">
-        <v>2020.398177490778</v>
+        <v>2020.398177490777</v>
       </c>
       <c r="O11" t="n">
-        <v>2500.826284459066</v>
+        <v>2500.826284459064</v>
       </c>
       <c r="P11" t="n">
-        <v>2876.359557800457</v>
+        <v>2876.359557800453</v>
       </c>
       <c r="Q11" t="n">
-        <v>3110.196660016262</v>
+        <v>3110.196660016259</v>
       </c>
       <c r="R11" t="n">
-        <v>3160.808700127516</v>
+        <v>3160.808700127513</v>
       </c>
       <c r="S11" t="n">
-        <v>3160.808700127516</v>
+        <v>3047.40707922425</v>
       </c>
       <c r="T11" t="n">
-        <v>3160.808700127516</v>
+        <v>2840.831714745548</v>
       </c>
       <c r="U11" t="n">
-        <v>2907.267301791065</v>
+        <v>2587.290316409095</v>
       </c>
       <c r="V11" t="n">
-        <v>2576.204414447494</v>
+        <v>2256.227429065525</v>
       </c>
       <c r="W11" t="n">
-        <v>2423.153366500431</v>
+        <v>1903.45877379541</v>
       </c>
       <c r="X11" t="n">
-        <v>2049.687608239351</v>
+        <v>1529.99301553433</v>
       </c>
       <c r="Y11" t="n">
-        <v>2049.687608239351</v>
+        <v>1522.474470324351</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>165.717707141684</v>
       </c>
       <c r="H12" t="n">
-        <v>74.51035467448015</v>
+        <v>74.51035467448014</v>
       </c>
       <c r="I12" t="n">
-        <v>63.21617400255032</v>
+        <v>63.21617400255025</v>
       </c>
       <c r="J12" t="n">
-        <v>255.1771257962306</v>
+        <v>255.1771257962336</v>
       </c>
       <c r="K12" t="n">
-        <v>481.8809290824677</v>
+        <v>481.8809290824703</v>
       </c>
       <c r="L12" t="n">
-        <v>833.0347107429636</v>
+        <v>833.0347107429659</v>
       </c>
       <c r="M12" t="n">
-        <v>1262.171479259172</v>
+        <v>1262.171479259174</v>
       </c>
       <c r="N12" t="n">
-        <v>1717.074866017445</v>
+        <v>1717.074866017446</v>
       </c>
       <c r="O12" t="n">
-        <v>2111.002797112214</v>
+        <v>2111.002797112215</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.831624872366</v>
+        <v>2407.831624872367</v>
       </c>
       <c r="Q12" t="n">
         <v>2556.334639012397</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>603.9481431646925</v>
+        <v>232.1523569304572</v>
       </c>
       <c r="C13" t="n">
-        <v>603.9481431646925</v>
+        <v>63.21617400255025</v>
       </c>
       <c r="D13" t="n">
-        <v>603.9481431646925</v>
+        <v>63.21617400255025</v>
       </c>
       <c r="E13" t="n">
-        <v>456.0350495822993</v>
+        <v>63.21617400255025</v>
       </c>
       <c r="F13" t="n">
-        <v>309.145102084389</v>
+        <v>63.21617400255025</v>
       </c>
       <c r="G13" t="n">
-        <v>309.145102084389</v>
+        <v>63.21617400255025</v>
       </c>
       <c r="H13" t="n">
-        <v>162.3834517680786</v>
+        <v>63.21617400255025</v>
       </c>
       <c r="I13" t="n">
-        <v>63.21617400255032</v>
+        <v>63.21617400255025</v>
       </c>
       <c r="J13" t="n">
-        <v>104.0954215042793</v>
+        <v>104.0954215042791</v>
       </c>
       <c r="K13" t="n">
-        <v>301.1094194718337</v>
+        <v>301.1094194718332</v>
       </c>
       <c r="L13" t="n">
-        <v>608.7459419277994</v>
+        <v>608.7459419277989</v>
       </c>
       <c r="M13" t="n">
-        <v>943.4946441288403</v>
+        <v>943.4946441288395</v>
       </c>
       <c r="N13" t="n">
-        <v>1275.718386813532</v>
+        <v>1275.718386813531</v>
       </c>
       <c r="O13" t="n">
-        <v>1566.564489639298</v>
+        <v>1566.564489639296</v>
       </c>
       <c r="P13" t="n">
-        <v>1791.912893594749</v>
+        <v>1791.912893594747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1864.497367614012</v>
+        <v>1864.497367614009</v>
       </c>
       <c r="R13" t="n">
-        <v>1864.497367614012</v>
+        <v>1771.913416874609</v>
       </c>
       <c r="S13" t="n">
-        <v>1864.497367614012</v>
+        <v>1697.026507728136</v>
       </c>
       <c r="T13" t="n">
-        <v>1642.469097928876</v>
+        <v>1474.998238042999</v>
       </c>
       <c r="U13" t="n">
-        <v>1353.362890787439</v>
+        <v>1185.892030901562</v>
       </c>
       <c r="V13" t="n">
-        <v>1353.362890787439</v>
+        <v>931.2075426956751</v>
       </c>
       <c r="W13" t="n">
-        <v>1063.945720750478</v>
+        <v>641.7903726587144</v>
       </c>
       <c r="X13" t="n">
-        <v>835.956169852461</v>
+        <v>413.8008217606969</v>
       </c>
       <c r="Y13" t="n">
-        <v>615.1635907089309</v>
+        <v>413.8008217606969</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1974.485496015729</v>
+        <v>2360.273748613974</v>
       </c>
       <c r="C14" t="n">
-        <v>1605.522979075317</v>
+        <v>1991.311231673562</v>
       </c>
       <c r="D14" t="n">
-        <v>1247.257280468567</v>
+        <v>1633.045533066812</v>
       </c>
       <c r="E14" t="n">
-        <v>1247.257280468567</v>
+        <v>1247.257280468568</v>
       </c>
       <c r="F14" t="n">
-        <v>836.2713756789594</v>
+        <v>836.27137567896</v>
       </c>
       <c r="G14" t="n">
-        <v>421.1883966333269</v>
+        <v>421.1883966333271</v>
       </c>
       <c r="H14" t="n">
-        <v>123.49696724094</v>
+        <v>123.4969672409401</v>
       </c>
       <c r="I14" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J14" t="n">
         <v>436.5030901387693</v>
@@ -5291,16 +5291,16 @@
         <v>2295.07296294414</v>
       </c>
       <c r="O14" t="n">
-        <v>2796.30673679497</v>
+        <v>3080.625317071504</v>
       </c>
       <c r="P14" t="n">
-        <v>3473.915745741028</v>
+        <v>3473.915745741029</v>
       </c>
       <c r="Q14" t="n">
-        <v>3931.27957284669</v>
+        <v>3931.279572846691</v>
       </c>
       <c r="R14" t="n">
-        <v>4054.707671221749</v>
+        <v>4054.70767122175</v>
       </c>
       <c r="S14" t="n">
         <v>3944.177075653637</v>
@@ -5309,19 +5309,19 @@
         <v>3738.15323781913</v>
       </c>
       <c r="U14" t="n">
-        <v>3484.621918781717</v>
+        <v>3484.621918781716</v>
       </c>
       <c r="V14" t="n">
         <v>3153.559031438146</v>
       </c>
       <c r="W14" t="n">
-        <v>2800.790376168032</v>
+        <v>2800.790376168031</v>
       </c>
       <c r="X14" t="n">
-        <v>2427.324617906952</v>
+        <v>2800.790376168031</v>
       </c>
       <c r="Y14" t="n">
-        <v>2361.085336079851</v>
+        <v>2746.873588678096</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>947.1285561634527</v>
+        <v>947.6226778276946</v>
       </c>
       <c r="C15" t="n">
-        <v>772.6755268823257</v>
+        <v>773.1696485465676</v>
       </c>
       <c r="D15" t="n">
-        <v>623.7411172210744</v>
+        <v>624.2352388853163</v>
       </c>
       <c r="E15" t="n">
-        <v>464.5036622156189</v>
+        <v>464.9977838798608</v>
       </c>
       <c r="F15" t="n">
-        <v>317.9691042425039</v>
+        <v>318.4632259067458</v>
       </c>
       <c r="G15" t="n">
-        <v>181.6003706219898</v>
+        <v>182.0944922862317</v>
       </c>
       <c r="H15" t="n">
-        <v>91.04406896250069</v>
+        <v>91.53819062674259</v>
       </c>
       <c r="I15" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J15" t="n">
         <v>174.2497766665191</v>
@@ -5379,28 +5379,28 @@
         <v>2571.115728784902</v>
       </c>
       <c r="R15" t="n">
-        <v>2570.62160712066</v>
+        <v>2571.115728784902</v>
       </c>
       <c r="S15" t="n">
-        <v>2441.079081693021</v>
+        <v>2441.573203357263</v>
       </c>
       <c r="T15" t="n">
-        <v>2248.413374601453</v>
+        <v>2248.907496265695</v>
       </c>
       <c r="U15" t="n">
-        <v>2020.345157113952</v>
+        <v>2020.839278778194</v>
       </c>
       <c r="V15" t="n">
-        <v>1785.193048882209</v>
+        <v>1785.687170546451</v>
       </c>
       <c r="W15" t="n">
-        <v>1530.955692154007</v>
+        <v>1531.449813818249</v>
       </c>
       <c r="X15" t="n">
-        <v>1323.104191948475</v>
+        <v>1323.598313612717</v>
       </c>
       <c r="Y15" t="n">
-        <v>1115.343893183521</v>
+        <v>1115.838014847763</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1106.384461606965</v>
+        <v>224.7389580633448</v>
       </c>
       <c r="C16" t="n">
-        <v>937.4482786790577</v>
+        <v>224.7389580633448</v>
       </c>
       <c r="D16" t="n">
-        <v>787.3316392667219</v>
+        <v>224.7389580633448</v>
       </c>
       <c r="E16" t="n">
-        <v>639.4185456843288</v>
+        <v>224.7389580633448</v>
       </c>
       <c r="F16" t="n">
-        <v>492.5285981864185</v>
+        <v>224.7389580633448</v>
       </c>
       <c r="G16" t="n">
-        <v>324.8210386632713</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="H16" t="n">
-        <v>178.5618610255555</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="I16" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J16" t="n">
-        <v>125.8895217789283</v>
+        <v>125.8895217789281</v>
       </c>
       <c r="K16" t="n">
-        <v>329.3389092923651</v>
+        <v>329.3389092923648</v>
       </c>
       <c r="L16" t="n">
-        <v>645.2105147399866</v>
+        <v>645.2105147399861</v>
       </c>
       <c r="M16" t="n">
-        <v>988.6419573118918</v>
+        <v>988.6419573118915</v>
       </c>
       <c r="N16" t="n">
-        <v>1329.341984208308</v>
+        <v>1329.341984208307</v>
       </c>
       <c r="O16" t="n">
         <v>1628.017307429956</v>
@@ -5455,31 +5455,31 @@
         <v>1860.064961973702</v>
       </c>
       <c r="Q16" t="n">
-        <v>1937.287649851113</v>
+        <v>1937.287649851112</v>
       </c>
       <c r="R16" t="n">
         <v>1847.244833946404</v>
       </c>
       <c r="S16" t="n">
-        <v>1736.815056478752</v>
+        <v>1655.476642544053</v>
       </c>
       <c r="T16" t="n">
-        <v>1736.815056478752</v>
+        <v>1433.68984745906</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.815056478752</v>
+        <v>1144.586722972093</v>
       </c>
       <c r="V16" t="n">
-        <v>1736.815056478752</v>
+        <v>1144.586722972093</v>
       </c>
       <c r="W16" t="n">
-        <v>1736.815056478752</v>
+        <v>855.1695529351321</v>
       </c>
       <c r="X16" t="n">
-        <v>1508.825505580734</v>
+        <v>627.1800020371147</v>
       </c>
       <c r="Y16" t="n">
-        <v>1288.032926437204</v>
+        <v>406.3874228935846</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2031.891439541561</v>
+        <v>2031.891439541562</v>
       </c>
       <c r="C17" t="n">
-        <v>1710.592171810467</v>
+        <v>1710.592171810468</v>
       </c>
       <c r="D17" t="n">
         <v>1399.989722413035</v>
       </c>
       <c r="E17" t="n">
-        <v>1061.864719024108</v>
+        <v>1061.864719024109</v>
       </c>
       <c r="F17" t="n">
-        <v>698.5420634438185</v>
+        <v>698.5420634438192</v>
       </c>
       <c r="G17" t="n">
-        <v>331.122333607504</v>
+        <v>331.1223336075041</v>
       </c>
       <c r="H17" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="I17" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J17" t="n">
-        <v>436.5030901387693</v>
+        <v>269.0974411184163</v>
       </c>
       <c r="K17" t="n">
-        <v>769.0098018132592</v>
+        <v>922.5081112383593</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.415541758103</v>
+        <v>1371.913851183203</v>
       </c>
       <c r="M17" t="n">
-        <v>1750.135456106598</v>
+        <v>1903.633765531698</v>
       </c>
       <c r="N17" t="n">
-        <v>2295.07296294414</v>
+        <v>2448.57127236924</v>
       </c>
       <c r="O17" t="n">
-        <v>2796.30673679497</v>
+        <v>3145.684572745756</v>
       </c>
       <c r="P17" t="n">
-        <v>3473.915745741028</v>
+        <v>3538.975001415281</v>
       </c>
       <c r="Q17" t="n">
-        <v>3931.27957284669</v>
+        <v>3996.338828520943</v>
       </c>
       <c r="R17" t="n">
-        <v>4054.707671221749</v>
+        <v>4054.70767122175</v>
       </c>
       <c r="S17" t="n">
         <v>3991.840324862955</v>
       </c>
       <c r="T17" t="n">
-        <v>3833.479736237766</v>
+        <v>3833.479736237767</v>
       </c>
       <c r="U17" t="n">
-        <v>3627.61166640967</v>
+        <v>3627.611666409671</v>
       </c>
       <c r="V17" t="n">
-        <v>3344.212028275417</v>
+        <v>3344.212028275418</v>
       </c>
       <c r="W17" t="n">
-        <v>3039.106622214621</v>
+        <v>3039.106622214622</v>
       </c>
       <c r="X17" t="n">
-        <v>2713.304113162859</v>
+        <v>2713.30411316286</v>
       </c>
       <c r="Y17" t="n">
-        <v>2370.828030396365</v>
+        <v>2370.828030396366</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>947.1285561634527</v>
+        <v>947.6226778276946</v>
       </c>
       <c r="C18" t="n">
-        <v>772.6755268823257</v>
+        <v>773.1696485465676</v>
       </c>
       <c r="D18" t="n">
-        <v>623.7411172210744</v>
+        <v>624.2352388853163</v>
       </c>
       <c r="E18" t="n">
-        <v>464.5036622156189</v>
+        <v>464.9977838798608</v>
       </c>
       <c r="F18" t="n">
-        <v>317.9691042425039</v>
+        <v>318.4632259067458</v>
       </c>
       <c r="G18" t="n">
-        <v>181.6003706219898</v>
+        <v>182.0944922862317</v>
       </c>
       <c r="H18" t="n">
-        <v>91.04406896250069</v>
+        <v>91.53819062674259</v>
       </c>
       <c r="I18" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J18" t="n">
         <v>174.2497766665191</v>
@@ -5616,28 +5616,28 @@
         <v>2571.115728784902</v>
       </c>
       <c r="R18" t="n">
-        <v>2570.62160712066</v>
+        <v>2571.115728784902</v>
       </c>
       <c r="S18" t="n">
-        <v>2441.079081693021</v>
+        <v>2441.573203357263</v>
       </c>
       <c r="T18" t="n">
-        <v>2248.413374601453</v>
+        <v>2248.907496265695</v>
       </c>
       <c r="U18" t="n">
-        <v>2020.345157113952</v>
+        <v>2020.839278778194</v>
       </c>
       <c r="V18" t="n">
-        <v>1785.193048882209</v>
+        <v>1785.687170546451</v>
       </c>
       <c r="W18" t="n">
-        <v>1530.955692154007</v>
+        <v>1531.449813818249</v>
       </c>
       <c r="X18" t="n">
-        <v>1323.104191948475</v>
+        <v>1323.598313612717</v>
       </c>
       <c r="Y18" t="n">
-        <v>1115.343893183521</v>
+        <v>1115.838014847763</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>772.7417171417399</v>
+        <v>772.7417171417392</v>
       </c>
       <c r="C19" t="n">
-        <v>651.4687834231507</v>
+        <v>651.4687834231499</v>
       </c>
       <c r="D19" t="n">
-        <v>549.0153932201329</v>
+        <v>549.0153932201321</v>
       </c>
       <c r="E19" t="n">
-        <v>448.7655488470576</v>
+        <v>448.7655488470571</v>
       </c>
       <c r="F19" t="n">
-        <v>349.5388505584651</v>
+        <v>349.5388505584645</v>
       </c>
       <c r="G19" t="n">
-        <v>229.4945402446358</v>
+        <v>229.4945402446351</v>
       </c>
       <c r="H19" t="n">
         <v>130.8986118162377</v>
       </c>
       <c r="I19" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J19" t="n">
-        <v>172.6042723289805</v>
+        <v>172.6042723289806</v>
       </c>
       <c r="K19" t="n">
-        <v>422.7684103924697</v>
+        <v>422.7684103924698</v>
       </c>
       <c r="L19" t="n">
-        <v>785.3547663901437</v>
+        <v>785.3547663901436</v>
       </c>
       <c r="M19" t="n">
         <v>1175.500959512102</v>
@@ -5701,7 +5701,7 @@
         <v>2124.52114536311</v>
       </c>
       <c r="T19" t="n">
-        <v>1950.397599487435</v>
+        <v>1950.397599487434</v>
       </c>
       <c r="U19" t="n">
         <v>1708.957724209785</v>
@@ -5713,10 +5713,10 @@
         <v>1260.182564385573</v>
       </c>
       <c r="X19" t="n">
-        <v>1079.856262696874</v>
+        <v>1079.856262696873</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.7269327626617</v>
+        <v>906.726932762661</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2031.891439541561</v>
+        <v>2031.891439541562</v>
       </c>
       <c r="C20" t="n">
-        <v>1710.592171810467</v>
+        <v>1710.592171810468</v>
       </c>
       <c r="D20" t="n">
-        <v>1399.989722413034</v>
+        <v>1399.989722413035</v>
       </c>
       <c r="E20" t="n">
-        <v>1061.864719024108</v>
+        <v>1061.864719024109</v>
       </c>
       <c r="F20" t="n">
-        <v>698.5420634438178</v>
+        <v>698.5420634438192</v>
       </c>
       <c r="G20" t="n">
-        <v>331.122333607504</v>
+        <v>331.1223336075041</v>
       </c>
       <c r="H20" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="I20" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J20" t="n">
-        <v>436.5030901387693</v>
+        <v>436.5030901387694</v>
       </c>
       <c r="K20" t="n">
-        <v>769.0098018132592</v>
+        <v>1053.328382089792</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.415541758103</v>
+        <v>1502.734122034636</v>
       </c>
       <c r="M20" t="n">
-        <v>1750.135456106598</v>
+        <v>2034.454036383131</v>
       </c>
       <c r="N20" t="n">
-        <v>2295.07296294414</v>
+        <v>2579.391543220673</v>
       </c>
       <c r="O20" t="n">
-        <v>3080.625317071503</v>
+        <v>3080.625317071504</v>
       </c>
       <c r="P20" t="n">
-        <v>3473.915745741028</v>
+        <v>3473.915745741029</v>
       </c>
       <c r="Q20" t="n">
-        <v>3931.27957284669</v>
+        <v>3931.279572846691</v>
       </c>
       <c r="R20" t="n">
-        <v>4054.707671221749</v>
+        <v>4054.70767122175</v>
       </c>
       <c r="S20" t="n">
-        <v>3991.840324862954</v>
+        <v>3991.840324862955</v>
       </c>
       <c r="T20" t="n">
-        <v>3833.479736237765</v>
+        <v>3833.479736237766</v>
       </c>
       <c r="U20" t="n">
         <v>3627.61166640967</v>
       </c>
       <c r="V20" t="n">
-        <v>3344.212028275417</v>
+        <v>3344.212028275418</v>
       </c>
       <c r="W20" t="n">
         <v>3039.106622214621</v>
       </c>
       <c r="X20" t="n">
-        <v>2713.304113162859</v>
+        <v>2713.30411316286</v>
       </c>
       <c r="Y20" t="n">
-        <v>2370.828030396365</v>
+        <v>2370.828030396366</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>947.6226778276946</v>
+        <v>947.622677827696</v>
       </c>
       <c r="C21" t="n">
-        <v>773.1696485465676</v>
+        <v>773.169648546569</v>
       </c>
       <c r="D21" t="n">
-        <v>624.2352388853163</v>
+        <v>624.2352388853177</v>
       </c>
       <c r="E21" t="n">
-        <v>464.9977838798608</v>
+        <v>464.9977838798622</v>
       </c>
       <c r="F21" t="n">
-        <v>318.4632259067458</v>
+        <v>318.4632259067472</v>
       </c>
       <c r="G21" t="n">
-        <v>182.0944922862317</v>
+        <v>182.094492286233</v>
       </c>
       <c r="H21" t="n">
-        <v>91.53819062674259</v>
+        <v>91.53819062674395</v>
       </c>
       <c r="I21" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J21" t="n">
-        <v>174.2497766665191</v>
+        <v>174.2497766665192</v>
       </c>
       <c r="K21" t="n">
-        <v>411.6223991215309</v>
+        <v>411.6223991215311</v>
       </c>
       <c r="L21" t="n">
-        <v>777.1217247685058</v>
+        <v>777.1217247685061</v>
       </c>
       <c r="M21" t="n">
         <v>1222.999066481339</v>
       </c>
       <c r="N21" t="n">
-        <v>1695.08609959562</v>
+        <v>1695.086099595621</v>
       </c>
       <c r="O21" t="n">
-        <v>2104.733710008328</v>
+        <v>2104.733710008329</v>
       </c>
       <c r="P21" t="n">
-        <v>2414.178966292534</v>
+        <v>2414.178966292535</v>
       </c>
       <c r="Q21" t="n">
-        <v>2571.115728784902</v>
+        <v>2571.115728784903</v>
       </c>
       <c r="R21" t="n">
-        <v>2571.115728784902</v>
+        <v>2571.115728784903</v>
       </c>
       <c r="S21" t="n">
-        <v>2441.573203357263</v>
+        <v>2441.573203357264</v>
       </c>
       <c r="T21" t="n">
-        <v>2248.907496265695</v>
+        <v>2248.907496265696</v>
       </c>
       <c r="U21" t="n">
-        <v>2020.839278778194</v>
+        <v>2020.839278778195</v>
       </c>
       <c r="V21" t="n">
-        <v>1785.687170546451</v>
+        <v>1785.687170546452</v>
       </c>
       <c r="W21" t="n">
-        <v>1531.449813818249</v>
+        <v>1531.449813818251</v>
       </c>
       <c r="X21" t="n">
-        <v>1323.598313612717</v>
+        <v>1323.598313612718</v>
       </c>
       <c r="Y21" t="n">
-        <v>1115.838014847763</v>
+        <v>1115.838014847764</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>772.7417171417397</v>
+        <v>772.7417171417399</v>
       </c>
       <c r="C22" t="n">
-        <v>651.4687834231506</v>
+        <v>651.4687834231507</v>
       </c>
       <c r="D22" t="n">
-        <v>549.0153932201328</v>
+        <v>549.0153932201329</v>
       </c>
       <c r="E22" t="n">
-        <v>448.7655488470575</v>
+        <v>448.7655488470576</v>
       </c>
       <c r="F22" t="n">
-        <v>349.538850558465</v>
+        <v>349.5388505584651</v>
       </c>
       <c r="G22" t="n">
-        <v>229.4945402446356</v>
+        <v>229.4945402446357</v>
       </c>
       <c r="H22" t="n">
-        <v>130.8986118162376</v>
+        <v>130.8986118162377</v>
       </c>
       <c r="I22" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J22" t="n">
-        <v>172.6042723289806</v>
+        <v>172.6042723289804</v>
       </c>
       <c r="K22" t="n">
-        <v>422.7684103924699</v>
+        <v>422.7684103924697</v>
       </c>
       <c r="L22" t="n">
-        <v>785.3547663901438</v>
+        <v>785.3547663901436</v>
       </c>
       <c r="M22" t="n">
-        <v>1175.500959512102</v>
+        <v>1175.500959512101</v>
       </c>
       <c r="N22" t="n">
         <v>1562.91573695857</v>
@@ -5953,7 +5953,7 @@
         <v>1079.856262696874</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.7269327626616</v>
+        <v>906.7269327626617</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1061.864719024109</v>
       </c>
       <c r="F23" t="n">
-        <v>698.5420634438194</v>
+        <v>698.5420634438187</v>
       </c>
       <c r="G23" t="n">
-        <v>331.1223336075047</v>
+        <v>331.1223336075041</v>
       </c>
       <c r="H23" t="n">
-        <v>81.09415342443575</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="I23" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J23" t="n">
         <v>436.5030901387693</v>
@@ -6005,22 +6005,22 @@
         <v>2796.30673679497</v>
       </c>
       <c r="P23" t="n">
-        <v>3473.915745741028</v>
+        <v>3473.915745741029</v>
       </c>
       <c r="Q23" t="n">
-        <v>3931.27957284669</v>
+        <v>3931.279572846691</v>
       </c>
       <c r="R23" t="n">
-        <v>4054.707671221749</v>
+        <v>4054.70767122175</v>
       </c>
       <c r="S23" t="n">
         <v>3991.840324862955</v>
       </c>
       <c r="T23" t="n">
-        <v>3833.479736237766</v>
+        <v>3833.479736237767</v>
       </c>
       <c r="U23" t="n">
-        <v>3627.61166640967</v>
+        <v>3627.611666409671</v>
       </c>
       <c r="V23" t="n">
         <v>3344.212028275418</v>
@@ -6029,7 +6029,7 @@
         <v>3039.106622214621</v>
       </c>
       <c r="X23" t="n">
-        <v>2713.304113162859</v>
+        <v>2713.30411316286</v>
       </c>
       <c r="Y23" t="n">
         <v>2370.828030396366</v>
@@ -6063,7 +6063,7 @@
         <v>91.53819062674259</v>
       </c>
       <c r="I24" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J24" t="n">
         <v>174.2497766665191</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>772.7417171417397</v>
+        <v>772.74171714174</v>
       </c>
       <c r="C25" t="n">
-        <v>651.4687834231506</v>
+        <v>651.4687834231509</v>
       </c>
       <c r="D25" t="n">
-        <v>549.0153932201328</v>
+        <v>549.015393220133</v>
       </c>
       <c r="E25" t="n">
-        <v>448.7655488470575</v>
+        <v>448.7655488470577</v>
       </c>
       <c r="F25" t="n">
-        <v>349.538850558465</v>
+        <v>349.5388505584651</v>
       </c>
       <c r="G25" t="n">
-        <v>229.4945402446356</v>
+        <v>229.4945402446357</v>
       </c>
       <c r="H25" t="n">
-        <v>130.8986118162376</v>
+        <v>130.8986118162377</v>
       </c>
       <c r="I25" t="n">
-        <v>81.09415342443499</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J25" t="n">
-        <v>172.6042723289806</v>
+        <v>172.6042723289813</v>
       </c>
       <c r="K25" t="n">
-        <v>422.7684103924698</v>
+        <v>422.7684103924705</v>
       </c>
       <c r="L25" t="n">
-        <v>785.3547663901437</v>
+        <v>785.3547663901443</v>
       </c>
       <c r="M25" t="n">
         <v>1175.500959512102</v>
       </c>
       <c r="N25" t="n">
-        <v>1562.91573695857</v>
+        <v>1562.915736958571</v>
       </c>
       <c r="O25" t="n">
-        <v>1908.305810730271</v>
+        <v>1908.305810730272</v>
       </c>
       <c r="P25" t="n">
         <v>2187.06821582407</v>
@@ -6175,22 +6175,22 @@
         <v>2124.52114536311</v>
       </c>
       <c r="T25" t="n">
-        <v>1950.397599487434</v>
+        <v>1950.397599487435</v>
       </c>
       <c r="U25" t="n">
-        <v>1708.957724209785</v>
+        <v>1708.957724209786</v>
       </c>
       <c r="V25" t="n">
         <v>1501.936485213216</v>
       </c>
       <c r="W25" t="n">
-        <v>1260.182564385573</v>
+        <v>1260.182564385574</v>
       </c>
       <c r="X25" t="n">
         <v>1079.856262696874</v>
       </c>
       <c r="Y25" t="n">
-        <v>906.7269327626616</v>
+        <v>906.7269327626618</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2031.891439541561</v>
+        <v>2031.891439541562</v>
       </c>
       <c r="C26" t="n">
-        <v>1710.592171810467</v>
+        <v>1710.592171810468</v>
       </c>
       <c r="D26" t="n">
-        <v>1399.989722413034</v>
+        <v>1399.989722413035</v>
       </c>
       <c r="E26" t="n">
-        <v>1061.864719024108</v>
+        <v>1061.864719024109</v>
       </c>
       <c r="F26" t="n">
-        <v>698.5420634438178</v>
+        <v>698.5420634438196</v>
       </c>
       <c r="G26" t="n">
-        <v>331.1223336075041</v>
+        <v>331.1223336075039</v>
       </c>
       <c r="H26" t="n">
         <v>81.09415342443501</v>
@@ -6224,25 +6224,25 @@
         <v>81.09415342443501</v>
       </c>
       <c r="J26" t="n">
-        <v>269.0974411184163</v>
+        <v>436.5030901387693</v>
       </c>
       <c r="K26" t="n">
-        <v>922.5081112383593</v>
+        <v>769.0098018132592</v>
       </c>
       <c r="L26" t="n">
-        <v>1371.913851183203</v>
+        <v>1218.415541758103</v>
       </c>
       <c r="M26" t="n">
-        <v>1903.633765531698</v>
+        <v>1750.135456106598</v>
       </c>
       <c r="N26" t="n">
-        <v>2448.57127236924</v>
+        <v>2295.07296294414</v>
       </c>
       <c r="O26" t="n">
-        <v>2949.80504622007</v>
+        <v>2796.30673679497</v>
       </c>
       <c r="P26" t="n">
-        <v>3661.676195979363</v>
+        <v>3473.915745741029</v>
       </c>
       <c r="Q26" t="n">
         <v>3931.279572846691</v>
@@ -6251,16 +6251,16 @@
         <v>4054.70767122175</v>
       </c>
       <c r="S26" t="n">
-        <v>3991.840324862954</v>
+        <v>3991.840324862955</v>
       </c>
       <c r="T26" t="n">
-        <v>3833.479736237765</v>
+        <v>3833.479736237767</v>
       </c>
       <c r="U26" t="n">
-        <v>3627.611666409669</v>
+        <v>3627.611666409671</v>
       </c>
       <c r="V26" t="n">
-        <v>3344.212028275417</v>
+        <v>3344.212028275418</v>
       </c>
       <c r="W26" t="n">
         <v>3039.106622214621</v>
@@ -6269,7 +6269,7 @@
         <v>2713.304113162859</v>
       </c>
       <c r="Y26" t="n">
-        <v>2370.828030396365</v>
+        <v>2370.828030396366</v>
       </c>
     </row>
     <row r="27">
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>772.7417171417397</v>
+        <v>772.7417171417392</v>
       </c>
       <c r="C28" t="n">
-        <v>651.4687834231506</v>
+        <v>651.4687834231502</v>
       </c>
       <c r="D28" t="n">
-        <v>549.0153932201328</v>
+        <v>549.0153932201324</v>
       </c>
       <c r="E28" t="n">
-        <v>448.7655488470575</v>
+        <v>448.7655488470572</v>
       </c>
       <c r="F28" t="n">
-        <v>349.538850558465</v>
+        <v>349.5388505584648</v>
       </c>
       <c r="G28" t="n">
-        <v>229.4945402446357</v>
+        <v>229.4945402446355</v>
       </c>
       <c r="H28" t="n">
-        <v>130.8986118162377</v>
+        <v>130.8986118162376</v>
       </c>
       <c r="I28" t="n">
         <v>81.09415342443501</v>
       </c>
       <c r="J28" t="n">
-        <v>172.6042723289806</v>
+        <v>172.6042723289802</v>
       </c>
       <c r="K28" t="n">
-        <v>422.7684103924698</v>
+        <v>422.7684103924689</v>
       </c>
       <c r="L28" t="n">
-        <v>785.3547663901437</v>
+        <v>785.3547663901428</v>
       </c>
       <c r="M28" t="n">
         <v>1175.500959512101</v>
       </c>
       <c r="N28" t="n">
-        <v>1562.91573695857</v>
+        <v>1562.915736958569</v>
       </c>
       <c r="O28" t="n">
-        <v>1908.305810730271</v>
+        <v>1908.30581073027</v>
       </c>
       <c r="P28" t="n">
         <v>2187.068215824069</v>
@@ -6415,19 +6415,19 @@
         <v>1950.397599487434</v>
       </c>
       <c r="U28" t="n">
-        <v>1708.957724209785</v>
+        <v>1708.957724209784</v>
       </c>
       <c r="V28" t="n">
-        <v>1501.936485213216</v>
+        <v>1501.936485213215</v>
       </c>
       <c r="W28" t="n">
         <v>1260.182564385573</v>
       </c>
       <c r="X28" t="n">
-        <v>1079.856262696874</v>
+        <v>1079.856262696873</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.7269327626616</v>
+        <v>906.7269327626609</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2031.891439541561</v>
+        <v>2031.891439541562</v>
       </c>
       <c r="C29" t="n">
-        <v>1710.592171810467</v>
+        <v>1710.592171810468</v>
       </c>
       <c r="D29" t="n">
-        <v>1399.989722413034</v>
+        <v>1399.989722413035</v>
       </c>
       <c r="E29" t="n">
-        <v>1061.864719024108</v>
+        <v>1061.864719024109</v>
       </c>
       <c r="F29" t="n">
-        <v>698.5420634438178</v>
+        <v>698.5420634438192</v>
       </c>
       <c r="G29" t="n">
-        <v>331.1223336075041</v>
+        <v>331.1223336075039</v>
       </c>
       <c r="H29" t="n">
         <v>81.09415342443501</v>
@@ -6461,25 +6461,25 @@
         <v>81.09415342443501</v>
       </c>
       <c r="J29" t="n">
-        <v>269.0974411184163</v>
+        <v>436.5030901387693</v>
       </c>
       <c r="K29" t="n">
-        <v>922.5081112383593</v>
+        <v>818.5018246851942</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.913851183203</v>
+        <v>1267.907564630038</v>
       </c>
       <c r="M29" t="n">
-        <v>1903.633765531698</v>
+        <v>2244.645877136437</v>
       </c>
       <c r="N29" t="n">
-        <v>2448.57127236924</v>
+        <v>2789.583383973979</v>
       </c>
       <c r="O29" t="n">
-        <v>2949.80504622007</v>
+        <v>3290.817157824809</v>
       </c>
       <c r="P29" t="n">
-        <v>3661.676195979363</v>
+        <v>3684.107586494335</v>
       </c>
       <c r="Q29" t="n">
         <v>3931.279572846691</v>
@@ -6488,10 +6488,10 @@
         <v>4054.70767122175</v>
       </c>
       <c r="S29" t="n">
-        <v>3991.840324862954</v>
+        <v>3991.840324862955</v>
       </c>
       <c r="T29" t="n">
-        <v>3833.479736237765</v>
+        <v>3833.479736237767</v>
       </c>
       <c r="U29" t="n">
         <v>3627.61166640967</v>
@@ -6506,7 +6506,7 @@
         <v>2713.304113162859</v>
       </c>
       <c r="Y29" t="n">
-        <v>2370.828030396365</v>
+        <v>2370.828030396366</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>772.7417171417397</v>
+        <v>772.7417171417401</v>
       </c>
       <c r="C31" t="n">
-        <v>651.4687834231506</v>
+        <v>651.4687834231511</v>
       </c>
       <c r="D31" t="n">
-        <v>549.0153932201328</v>
+        <v>549.0153932201333</v>
       </c>
       <c r="E31" t="n">
-        <v>448.7655488470575</v>
+        <v>448.7655488470572</v>
       </c>
       <c r="F31" t="n">
-        <v>349.538850558465</v>
+        <v>349.5388505584648</v>
       </c>
       <c r="G31" t="n">
-        <v>229.4945402446357</v>
+        <v>229.4945402446355</v>
       </c>
       <c r="H31" t="n">
-        <v>130.8986118162377</v>
+        <v>130.8986118162376</v>
       </c>
       <c r="I31" t="n">
         <v>81.09415342443501</v>
@@ -6622,31 +6622,31 @@
         <v>172.6042723289806</v>
       </c>
       <c r="K31" t="n">
-        <v>422.7684103924698</v>
+        <v>422.7684103924699</v>
       </c>
       <c r="L31" t="n">
-        <v>785.3547663901437</v>
+        <v>785.3547663901441</v>
       </c>
       <c r="M31" t="n">
-        <v>1175.500959512101</v>
+        <v>1175.500959512102</v>
       </c>
       <c r="N31" t="n">
         <v>1562.91573695857</v>
       </c>
       <c r="O31" t="n">
-        <v>1908.30581073027</v>
+        <v>1908.305810730271</v>
       </c>
       <c r="P31" t="n">
-        <v>2187.068215824069</v>
+        <v>2187.06821582407</v>
       </c>
       <c r="Q31" t="n">
-        <v>2311.005654251532</v>
+        <v>2311.005654251533</v>
       </c>
       <c r="R31" t="n">
-        <v>2268.626087556141</v>
+        <v>2268.626087556142</v>
       </c>
       <c r="S31" t="n">
-        <v>2124.521145363109</v>
+        <v>2124.52114536311</v>
       </c>
       <c r="T31" t="n">
         <v>1950.397599487434</v>
@@ -6664,7 +6664,7 @@
         <v>1079.856262696874</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.7269327626616</v>
+        <v>906.7269327626618</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2031.89143954156</v>
+        <v>2031.891439541563</v>
       </c>
       <c r="C32" t="n">
-        <v>1710.592171810466</v>
+        <v>1710.592171810469</v>
       </c>
       <c r="D32" t="n">
-        <v>1399.989722413034</v>
+        <v>1399.989722413036</v>
       </c>
       <c r="E32" t="n">
-        <v>1061.864719024107</v>
+        <v>1061.86471902411</v>
       </c>
       <c r="F32" t="n">
-        <v>698.5420634438178</v>
+        <v>698.5420634438203</v>
       </c>
       <c r="G32" t="n">
-        <v>331.1223336075039</v>
+        <v>331.122333607504</v>
       </c>
       <c r="H32" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443502</v>
       </c>
       <c r="I32" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443502</v>
       </c>
       <c r="J32" t="n">
         <v>436.5030901387693</v>
       </c>
       <c r="K32" t="n">
-        <v>769.0098018132592</v>
+        <v>769.0098018132593</v>
       </c>
       <c r="L32" t="n">
         <v>1218.415541758103</v>
@@ -6716,34 +6716,34 @@
         <v>2796.30673679497</v>
       </c>
       <c r="P32" t="n">
-        <v>3473.915745741028</v>
+        <v>3473.91574574103</v>
       </c>
       <c r="Q32" t="n">
-        <v>3931.27957284669</v>
+        <v>3931.279572846692</v>
       </c>
       <c r="R32" t="n">
-        <v>4054.707671221749</v>
+        <v>4054.707671221751</v>
       </c>
       <c r="S32" t="n">
-        <v>3991.840324862953</v>
+        <v>3991.840324862956</v>
       </c>
       <c r="T32" t="n">
-        <v>3833.479736237765</v>
+        <v>3833.479736237767</v>
       </c>
       <c r="U32" t="n">
-        <v>3627.611666409669</v>
+        <v>3627.611666409671</v>
       </c>
       <c r="V32" t="n">
-        <v>3344.212028275416</v>
+        <v>3344.212028275419</v>
       </c>
       <c r="W32" t="n">
-        <v>3039.10662221462</v>
+        <v>3039.106622214622</v>
       </c>
       <c r="X32" t="n">
-        <v>2713.304113162858</v>
+        <v>2713.30411316286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2370.828030396364</v>
+        <v>2370.828030396367</v>
       </c>
     </row>
     <row r="33">
@@ -6774,10 +6774,10 @@
         <v>91.53819062674259</v>
       </c>
       <c r="I33" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443502</v>
       </c>
       <c r="J33" t="n">
-        <v>174.249776666519</v>
+        <v>174.2497766665191</v>
       </c>
       <c r="K33" t="n">
         <v>411.6223991215309</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>772.7417171417394</v>
+        <v>772.7417171417393</v>
       </c>
       <c r="C34" t="n">
-        <v>651.4687834231504</v>
+        <v>651.4687834231503</v>
       </c>
       <c r="D34" t="n">
-        <v>549.0153932201326</v>
+        <v>549.0153932201324</v>
       </c>
       <c r="E34" t="n">
-        <v>448.7655488470575</v>
+        <v>448.7655488470572</v>
       </c>
       <c r="F34" t="n">
-        <v>349.538850558465</v>
+        <v>349.5388505584647</v>
       </c>
       <c r="G34" t="n">
-        <v>229.4945402446357</v>
+        <v>229.4945402446353</v>
       </c>
       <c r="H34" t="n">
-        <v>130.8986118162378</v>
+        <v>130.8986118162375</v>
       </c>
       <c r="I34" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443502</v>
       </c>
       <c r="J34" t="n">
         <v>172.6042723289805</v>
       </c>
       <c r="K34" t="n">
-        <v>422.7684103924698</v>
+        <v>422.7684103924697</v>
       </c>
       <c r="L34" t="n">
         <v>785.3547663901436</v>
       </c>
       <c r="M34" t="n">
-        <v>1175.500959512101</v>
+        <v>1175.500959512102</v>
       </c>
       <c r="N34" t="n">
         <v>1562.91573695857</v>
@@ -6874,10 +6874,10 @@
         <v>1908.305810730271</v>
       </c>
       <c r="P34" t="n">
-        <v>2187.06821582407</v>
+        <v>2187.068215824069</v>
       </c>
       <c r="Q34" t="n">
-        <v>2311.005654251533</v>
+        <v>2311.005654251532</v>
       </c>
       <c r="R34" t="n">
         <v>2268.626087556142</v>
@@ -6926,13 +6926,13 @@
         <v>698.5420634438192</v>
       </c>
       <c r="G35" t="n">
-        <v>331.1223336075039</v>
+        <v>331.122333607504</v>
       </c>
       <c r="H35" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="I35" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J35" t="n">
         <v>436.5030901387693</v>
@@ -6953,28 +6953,28 @@
         <v>2796.30673679497</v>
       </c>
       <c r="P35" t="n">
-        <v>3473.915745741028</v>
+        <v>3473.915745741029</v>
       </c>
       <c r="Q35" t="n">
-        <v>3931.27957284669</v>
+        <v>3931.279572846691</v>
       </c>
       <c r="R35" t="n">
-        <v>4054.707671221749</v>
+        <v>4054.70767122175</v>
       </c>
       <c r="S35" t="n">
-        <v>3991.840324862954</v>
+        <v>3991.840324862955</v>
       </c>
       <c r="T35" t="n">
-        <v>3833.479736237766</v>
+        <v>3833.479736237767</v>
       </c>
       <c r="U35" t="n">
-        <v>3627.61166640967</v>
+        <v>3627.611666409671</v>
       </c>
       <c r="V35" t="n">
         <v>3344.212028275418</v>
       </c>
       <c r="W35" t="n">
-        <v>3039.106622214621</v>
+        <v>3039.106622214622</v>
       </c>
       <c r="X35" t="n">
         <v>2713.30411316286</v>
@@ -7011,10 +7011,10 @@
         <v>91.53819062674259</v>
       </c>
       <c r="I36" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J36" t="n">
-        <v>174.249776666519</v>
+        <v>174.2497766665191</v>
       </c>
       <c r="K36" t="n">
         <v>411.6223991215309</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>772.7417171417392</v>
+        <v>772.7417171417396</v>
       </c>
       <c r="C37" t="n">
-        <v>651.4687834231502</v>
+        <v>651.4687834231506</v>
       </c>
       <c r="D37" t="n">
-        <v>549.0153932201324</v>
+        <v>549.0153932201328</v>
       </c>
       <c r="E37" t="n">
-        <v>448.7655488470572</v>
+        <v>448.7655488470575</v>
       </c>
       <c r="F37" t="n">
-        <v>349.5388505584648</v>
+        <v>349.538850558465</v>
       </c>
       <c r="G37" t="n">
-        <v>229.4945402446355</v>
+        <v>229.4945402446356</v>
       </c>
       <c r="H37" t="n">
         <v>130.8986118162376</v>
       </c>
       <c r="I37" t="n">
-        <v>81.09415342443498</v>
+        <v>81.09415342443501</v>
       </c>
       <c r="J37" t="n">
         <v>172.6042723289806</v>
@@ -7114,31 +7114,31 @@
         <v>2187.06821582407</v>
       </c>
       <c r="Q37" t="n">
-        <v>2311.005654251532</v>
+        <v>2311.005654251533</v>
       </c>
       <c r="R37" t="n">
         <v>2268.626087556142</v>
       </c>
       <c r="S37" t="n">
-        <v>2124.521145363109</v>
+        <v>2124.52114536311</v>
       </c>
       <c r="T37" t="n">
         <v>1950.397599487434</v>
       </c>
       <c r="U37" t="n">
-        <v>1708.957724209784</v>
+        <v>1708.957724209785</v>
       </c>
       <c r="V37" t="n">
-        <v>1501.936485213215</v>
+        <v>1501.936485213216</v>
       </c>
       <c r="W37" t="n">
         <v>1260.182564385573</v>
       </c>
       <c r="X37" t="n">
-        <v>1079.856262696873</v>
+        <v>1079.856262696874</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.7269327626609</v>
+        <v>906.7269327626615</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2031.891439541562</v>
+        <v>2031.891439541561</v>
       </c>
       <c r="C38" t="n">
-        <v>1710.592171810468</v>
+        <v>1710.592171810467</v>
       </c>
       <c r="D38" t="n">
         <v>1399.989722413035</v>
       </c>
       <c r="E38" t="n">
-        <v>1061.864719024109</v>
+        <v>1061.864719024108</v>
       </c>
       <c r="F38" t="n">
-        <v>698.5420634438192</v>
+        <v>698.5420634438187</v>
       </c>
       <c r="G38" t="n">
         <v>331.122333607504</v>
@@ -7172,25 +7172,25 @@
         <v>81.09415342443501</v>
       </c>
       <c r="J38" t="n">
-        <v>436.5030901387693</v>
+        <v>402.2409493255345</v>
       </c>
       <c r="K38" t="n">
-        <v>769.0098018132592</v>
+        <v>734.7476610000244</v>
       </c>
       <c r="L38" t="n">
-        <v>1218.415541758103</v>
+        <v>1184.153400944868</v>
       </c>
       <c r="M38" t="n">
-        <v>1750.135456106598</v>
+        <v>1715.873315293363</v>
       </c>
       <c r="N38" t="n">
-        <v>2295.07296294414</v>
+        <v>2260.810822130905</v>
       </c>
       <c r="O38" t="n">
-        <v>2796.30673679497</v>
+        <v>2762.044595981736</v>
       </c>
       <c r="P38" t="n">
-        <v>3508.177886554263</v>
+        <v>3473.915745741029</v>
       </c>
       <c r="Q38" t="n">
         <v>3931.279572846691</v>
@@ -7199,25 +7199,25 @@
         <v>4054.70767122175</v>
       </c>
       <c r="S38" t="n">
-        <v>3991.840324862955</v>
+        <v>3991.840324862954</v>
       </c>
       <c r="T38" t="n">
-        <v>3833.479736237767</v>
+        <v>3833.479736237766</v>
       </c>
       <c r="U38" t="n">
-        <v>3627.611666409671</v>
+        <v>3627.61166640967</v>
       </c>
       <c r="V38" t="n">
-        <v>3344.212028275418</v>
+        <v>3344.212028275417</v>
       </c>
       <c r="W38" t="n">
-        <v>3039.106622214622</v>
+        <v>3039.106622214621</v>
       </c>
       <c r="X38" t="n">
-        <v>2713.30411316286</v>
+        <v>2713.304113162859</v>
       </c>
       <c r="Y38" t="n">
-        <v>2370.828030396366</v>
+        <v>2370.828030396365</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>772.7417171417391</v>
+        <v>772.7417171417396</v>
       </c>
       <c r="C40" t="n">
-        <v>651.4687834231501</v>
+        <v>651.4687834231506</v>
       </c>
       <c r="D40" t="n">
-        <v>549.0153932201322</v>
+        <v>549.0153932201328</v>
       </c>
       <c r="E40" t="n">
-        <v>448.7655488470569</v>
+        <v>448.7655488470575</v>
       </c>
       <c r="F40" t="n">
-        <v>349.5388505584644</v>
+        <v>349.538850558465</v>
       </c>
       <c r="G40" t="n">
-        <v>229.4945402446351</v>
+        <v>229.4945402446356</v>
       </c>
       <c r="H40" t="n">
         <v>130.8986118162376</v>
@@ -7333,10 +7333,10 @@
         <v>172.6042723289806</v>
       </c>
       <c r="K40" t="n">
-        <v>422.7684103924698</v>
+        <v>422.7684103924699</v>
       </c>
       <c r="L40" t="n">
-        <v>785.3547663901437</v>
+        <v>785.3547663901438</v>
       </c>
       <c r="M40" t="n">
         <v>1175.500959512101</v>
@@ -7351,13 +7351,13 @@
         <v>2187.06821582407</v>
       </c>
       <c r="Q40" t="n">
-        <v>2311.005654251532</v>
+        <v>2311.005654251533</v>
       </c>
       <c r="R40" t="n">
         <v>2268.626087556142</v>
       </c>
       <c r="S40" t="n">
-        <v>2124.521145363109</v>
+        <v>2124.52114536311</v>
       </c>
       <c r="T40" t="n">
         <v>1950.397599487434</v>
@@ -7372,10 +7372,10 @@
         <v>1260.182564385573</v>
       </c>
       <c r="X40" t="n">
-        <v>1079.856262696873</v>
+        <v>1079.856262696874</v>
       </c>
       <c r="Y40" t="n">
-        <v>906.7269327626609</v>
+        <v>906.7269327626615</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>698.5420634438192</v>
       </c>
       <c r="G41" t="n">
-        <v>331.1223336075041</v>
+        <v>331.122333607504</v>
       </c>
       <c r="H41" t="n">
         <v>81.09415342443501</v>
@@ -7409,22 +7409,22 @@
         <v>81.09415342443501</v>
       </c>
       <c r="J41" t="n">
-        <v>436.5030901387693</v>
+        <v>402.2409493255345</v>
       </c>
       <c r="K41" t="n">
-        <v>769.0098018132592</v>
+        <v>734.7476610000244</v>
       </c>
       <c r="L41" t="n">
-        <v>1218.415541758103</v>
+        <v>1184.153400944868</v>
       </c>
       <c r="M41" t="n">
-        <v>1750.135456106598</v>
+        <v>1715.873315293363</v>
       </c>
       <c r="N41" t="n">
-        <v>2295.07296294414</v>
+        <v>2260.810822130905</v>
       </c>
       <c r="O41" t="n">
-        <v>2796.30673679497</v>
+        <v>2762.044595981736</v>
       </c>
       <c r="P41" t="n">
         <v>3473.915745741029</v>
@@ -7445,10 +7445,10 @@
         <v>3627.611666409671</v>
       </c>
       <c r="V41" t="n">
-        <v>3344.212028275419</v>
+        <v>3344.212028275418</v>
       </c>
       <c r="W41" t="n">
-        <v>3039.106622214622</v>
+        <v>3039.106622214621</v>
       </c>
       <c r="X41" t="n">
         <v>2713.30411316286</v>
@@ -7546,34 +7546,34 @@
         <v>772.7417171417394</v>
       </c>
       <c r="C43" t="n">
-        <v>651.4687834231503</v>
+        <v>651.4687834231504</v>
       </c>
       <c r="D43" t="n">
-        <v>549.0153932201324</v>
+        <v>549.0153932201325</v>
       </c>
       <c r="E43" t="n">
-        <v>448.7655488470572</v>
+        <v>448.7655488470573</v>
       </c>
       <c r="F43" t="n">
-        <v>349.5388505584647</v>
+        <v>349.5388505584648</v>
       </c>
       <c r="G43" t="n">
-        <v>229.4945402446353</v>
+        <v>229.4945402446355</v>
       </c>
       <c r="H43" t="n">
-        <v>130.8986118162376</v>
+        <v>130.8986118162375</v>
       </c>
       <c r="I43" t="n">
         <v>81.09415342443501</v>
       </c>
       <c r="J43" t="n">
-        <v>172.6042723289806</v>
+        <v>172.6042723289804</v>
       </c>
       <c r="K43" t="n">
-        <v>422.7684103924698</v>
+        <v>422.7684103924697</v>
       </c>
       <c r="L43" t="n">
-        <v>785.3547663901437</v>
+        <v>785.3547663901436</v>
       </c>
       <c r="M43" t="n">
         <v>1175.500959512101</v>
@@ -7585,7 +7585,7 @@
         <v>1908.305810730271</v>
       </c>
       <c r="P43" t="n">
-        <v>2187.068215824069</v>
+        <v>2187.06821582407</v>
       </c>
       <c r="Q43" t="n">
         <v>2311.005654251532</v>
@@ -7594,7 +7594,7 @@
         <v>2268.626087556142</v>
       </c>
       <c r="S43" t="n">
-        <v>2124.521145363109</v>
+        <v>2124.52114536311</v>
       </c>
       <c r="T43" t="n">
         <v>1950.397599487434</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2031.891439541561</v>
+        <v>2031.891439541562</v>
       </c>
       <c r="C44" t="n">
-        <v>1710.592171810467</v>
+        <v>1710.592171810468</v>
       </c>
       <c r="D44" t="n">
         <v>1399.989722413035</v>
@@ -7634,64 +7634,64 @@
         <v>1061.864719024109</v>
       </c>
       <c r="F44" t="n">
-        <v>698.5420634438186</v>
+        <v>698.5420634438192</v>
       </c>
       <c r="G44" t="n">
-        <v>331.1223336075041</v>
+        <v>331.122333607504</v>
       </c>
       <c r="H44" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="I44" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J44" t="n">
-        <v>436.5030901387693</v>
+        <v>399.9177119698488</v>
       </c>
       <c r="K44" t="n">
-        <v>769.0098018132592</v>
+        <v>1053.328382089792</v>
       </c>
       <c r="L44" t="n">
-        <v>1218.415541758103</v>
+        <v>1502.734122034636</v>
       </c>
       <c r="M44" t="n">
-        <v>1750.135456106598</v>
+        <v>2034.454036383131</v>
       </c>
       <c r="N44" t="n">
-        <v>2295.07296294414</v>
+        <v>2579.391543220673</v>
       </c>
       <c r="O44" t="n">
-        <v>2796.30673679497</v>
+        <v>3080.625317071503</v>
       </c>
       <c r="P44" t="n">
-        <v>3508.177886554263</v>
+        <v>3473.915745741028</v>
       </c>
       <c r="Q44" t="n">
-        <v>3965.541713659925</v>
+        <v>3931.27957284669</v>
       </c>
       <c r="R44" t="n">
-        <v>4054.70767122175</v>
+        <v>4054.707671221749</v>
       </c>
       <c r="S44" t="n">
         <v>3991.840324862955</v>
       </c>
       <c r="T44" t="n">
-        <v>3833.479736237767</v>
+        <v>3833.479736237766</v>
       </c>
       <c r="U44" t="n">
-        <v>3627.61166640967</v>
+        <v>3627.611666409671</v>
       </c>
       <c r="V44" t="n">
         <v>3344.212028275418</v>
       </c>
       <c r="W44" t="n">
-        <v>3039.106622214621</v>
+        <v>3039.106622214622</v>
       </c>
       <c r="X44" t="n">
-        <v>2713.304113162859</v>
+        <v>2713.30411316286</v>
       </c>
       <c r="Y44" t="n">
-        <v>2370.828030396365</v>
+        <v>2370.828030396366</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>91.53819062674259</v>
       </c>
       <c r="I45" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J45" t="n">
         <v>174.2497766665191</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>772.7417171417397</v>
+        <v>772.7417171417395</v>
       </c>
       <c r="C46" t="n">
-        <v>651.4687834231506</v>
+        <v>651.4687834231505</v>
       </c>
       <c r="D46" t="n">
-        <v>549.0153932201328</v>
+        <v>549.0153932201326</v>
       </c>
       <c r="E46" t="n">
-        <v>448.7655488470575</v>
+        <v>448.7655488470573</v>
       </c>
       <c r="F46" t="n">
-        <v>349.538850558465</v>
+        <v>349.5388505584648</v>
       </c>
       <c r="G46" t="n">
-        <v>229.4945402446357</v>
+        <v>229.4945402446355</v>
       </c>
       <c r="H46" t="n">
-        <v>130.8986118162377</v>
+        <v>130.8986118162376</v>
       </c>
       <c r="I46" t="n">
-        <v>81.09415342443501</v>
+        <v>81.09415342443499</v>
       </c>
       <c r="J46" t="n">
         <v>172.6042723289806</v>
       </c>
       <c r="K46" t="n">
-        <v>422.7684103924699</v>
+        <v>422.7684103924695</v>
       </c>
       <c r="L46" t="n">
-        <v>785.3547663901438</v>
+        <v>785.3547663901434</v>
       </c>
       <c r="M46" t="n">
-        <v>1175.500959512102</v>
+        <v>1175.500959512101</v>
       </c>
       <c r="N46" t="n">
         <v>1562.91573695857</v>
@@ -7822,16 +7822,16 @@
         <v>1908.305810730271</v>
       </c>
       <c r="P46" t="n">
-        <v>2187.06821582407</v>
+        <v>2187.068215824069</v>
       </c>
       <c r="Q46" t="n">
-        <v>2311.005654251533</v>
+        <v>2311.005654251532</v>
       </c>
       <c r="R46" t="n">
         <v>2268.626087556142</v>
       </c>
       <c r="S46" t="n">
-        <v>2124.52114536311</v>
+        <v>2124.521145363109</v>
       </c>
       <c r="T46" t="n">
         <v>1950.397599487434</v>
@@ -7849,7 +7849,7 @@
         <v>1079.856262696874</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.7269327626616</v>
+        <v>906.7269327626614</v>
       </c>
     </row>
   </sheetData>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>144.7174847160704</v>
       </c>
       <c r="L9" t="n">
-        <v>145.4304255215856</v>
+        <v>145.1526054916175</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>137.9399377950766</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>149.4722901861559</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>140.8504531560417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>146.857819827733</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,10 +8614,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>141.4829019929816</v>
+        <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
-        <v>145.8018296893165</v>
+        <v>145.5240096593483</v>
       </c>
       <c r="N10" t="n">
         <v>134.5615902069446</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>106.108558628595</v>
+        <v>106.1085586285983</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>4.63273743291785</v>
+        <v>4.632737432917963</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>287.1904851278115</v>
       </c>
       <c r="P14" t="n">
-        <v>287.190485127811</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.158821514781794</v>
+        <v>8.669641067182324</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.4891804475996651</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>197.8581076017028</v>
       </c>
       <c r="P17" t="n">
-        <v>287.190485127811</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.158821514781794</v>
+        <v>8.669641067182324</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.4891804475996651</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>287.1904851278107</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>287.190485127811</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>8.66964106718231</v>
+        <v>8.66964106718096</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4891804475996651</v>
+        <v>0.4891804475996366</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>287.190485127811</v>
+        <v>287.1904851278114</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>8.66964106718231</v>
+        <v>8.669641067182324</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>287.1904851278114</v>
       </c>
       <c r="Q26" t="n">
-        <v>22.65797021714243</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>49.99194229488376</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>22.65797021714243</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>287.1904851278105</v>
+        <v>287.1904851278125</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8.669641067182297</v>
+        <v>8.669641067182338</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>287.1904851278105</v>
+        <v>287.1904851278114</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>8.669641067182297</v>
+        <v>8.669641067182324</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>134.4883921284022</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>177.7067676162335</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>134.4883921284022</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>287.1904851278114</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>132.1416877287198</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>31.10819682931105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>8.669641067182324</v>
+        <v>8.66964106718231</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.0568805807625</v>
       </c>
       <c r="H11" t="n">
-        <v>295.9919197866238</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>112.2676046942299</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>204.5096108339153</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>197.7204312498205</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>378.7945788981739</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168.7286871131413</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0864341065445</v>
+        <v>166.0864341065446</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.2940338131474</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.17560498787302</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>91.65811123200638</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.8255685104301</v>
+        <v>116.6875284554216</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>320.6610496472236</v>
+        <v>332.8603190410176</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>23.82212733539514</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7965858613388</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.49303052510935</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>80.52502979535068</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.568927134143</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2120932420976</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-8.171241461241152e-13</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1142534.867151869</v>
+        <v>1142534.867151868</v>
       </c>
     </row>
     <row r="6">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40963.81693585192</v>
+        <v>40963.81693585191</v>
       </c>
       <c r="C2" t="n">
         <v>40963.81693585192</v>
       </c>
       <c r="D2" t="n">
-        <v>41018.55025995595</v>
+        <v>41018.55025995593</v>
       </c>
       <c r="E2" t="n">
-        <v>33343.473846532</v>
+        <v>33343.47384653201</v>
       </c>
       <c r="F2" t="n">
-        <v>36905.81461253218</v>
+        <v>36905.81461253219</v>
       </c>
       <c r="G2" t="n">
         <v>41052.08849321415</v>
       </c>
       <c r="H2" t="n">
+        <v>41052.08849321414</v>
+      </c>
+      <c r="I2" t="n">
         <v>41052.08849321412</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>41052.08849321413</v>
       </c>
-      <c r="J2" t="n">
-        <v>41052.08849321416</v>
-      </c>
       <c r="K2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="L2" t="n">
         <v>41052.08849321415</v>
@@ -26347,13 +26347,13 @@
         <v>41052.08849321412</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321412</v>
       </c>
       <c r="O2" t="n">
         <v>41052.08849321415</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321412</v>
+        <v>41052.08849321415</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>2135.906088747824</v>
       </c>
       <c r="E3" t="n">
-        <v>1082403.580944329</v>
+        <v>1082403.580944327</v>
       </c>
       <c r="F3" t="n">
-        <v>88556.39574538944</v>
+        <v>88556.39574539044</v>
       </c>
       <c r="G3" t="n">
-        <v>37749.29337377974</v>
+        <v>37749.29337377977</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>39489.55866659521</v>
+        <v>39489.55866659528</v>
       </c>
       <c r="M3" t="n">
-        <v>195208.0047236269</v>
+        <v>195208.0047236267</v>
       </c>
       <c r="N3" t="n">
-        <v>54734.99832329934</v>
+        <v>54734.99832329957</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,34 +26421,34 @@
         <v>409397.0283363865</v>
       </c>
       <c r="D4" t="n">
-        <v>408996.6277656588</v>
+        <v>408996.6277656587</v>
       </c>
       <c r="E4" t="n">
-        <v>9456.009910147772</v>
+        <v>9456.009910147764</v>
       </c>
       <c r="F4" t="n">
-        <v>25678.05866899653</v>
+        <v>25678.0586689965</v>
       </c>
       <c r="G4" t="n">
-        <v>73125.68471511376</v>
+        <v>73125.68471511375</v>
       </c>
       <c r="H4" t="n">
-        <v>73125.68471511376</v>
+        <v>73125.6847151137</v>
       </c>
       <c r="I4" t="n">
-        <v>73125.68471511376</v>
+        <v>73125.68471511375</v>
       </c>
       <c r="J4" t="n">
-        <v>73125.68471511378</v>
+        <v>73125.68471511384</v>
       </c>
       <c r="K4" t="n">
-        <v>73125.68471511378</v>
+        <v>73125.68471511384</v>
       </c>
       <c r="L4" t="n">
+        <v>73125.68471511381</v>
+      </c>
+      <c r="M4" t="n">
         <v>73125.68471511379</v>
-      </c>
-      <c r="M4" t="n">
-        <v>73125.68471511378</v>
       </c>
       <c r="N4" t="n">
         <v>73125.68471511378</v>
@@ -26476,7 +26476,7 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>71068.51293280722</v>
+        <v>71068.51293280713</v>
       </c>
       <c r="F5" t="n">
         <v>85332.16408926278</v>
@@ -26497,10 +26497,10 @@
         <v>89299.09577006314</v>
       </c>
       <c r="L5" t="n">
-        <v>89299.09577006313</v>
+        <v>89299.09577006314</v>
       </c>
       <c r="M5" t="n">
-        <v>89299.09577006313</v>
+        <v>89299.09577006314</v>
       </c>
       <c r="N5" t="n">
         <v>89299.09577006314</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-402060.8114005346</v>
+        <v>-402065.2249784027</v>
       </c>
       <c r="C6" t="n">
-        <v>-402060.8114005346</v>
+        <v>-402065.2249784027</v>
       </c>
       <c r="D6" t="n">
-        <v>-404159.6471755467</v>
+        <v>-404161.3240872096</v>
       </c>
       <c r="E6" t="n">
-        <v>-1129584.629940752</v>
+        <v>-1129970.060673085</v>
       </c>
       <c r="F6" t="n">
-        <v>-162660.8038911166</v>
+        <v>-162868.1175851516</v>
       </c>
       <c r="G6" t="n">
         <v>-159121.9853657425</v>
       </c>
       <c r="H6" t="n">
-        <v>-121372.6919919628</v>
+        <v>-121372.6919919627</v>
       </c>
       <c r="I6" t="n">
         <v>-121372.6919919628</v>
@@ -26549,13 +26549,13 @@
         <v>-121372.6919919628</v>
       </c>
       <c r="L6" t="n">
-        <v>-160862.250658558</v>
+        <v>-160862.2506585581</v>
       </c>
       <c r="M6" t="n">
-        <v>-316580.6967155897</v>
+        <v>-316580.6967155895</v>
       </c>
       <c r="N6" t="n">
-        <v>-176107.6903152621</v>
+        <v>-176107.6903152624</v>
       </c>
       <c r="O6" t="n">
         <v>-121372.6919919628</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="H2" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="I2" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="J2" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="K2" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="L2" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="M2" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="N2" t="n">
         <v>47.18661671722468</v>
       </c>
       <c r="O2" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="P2" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1056.156912425182</v>
+        <v>1056.156912425181</v>
       </c>
       <c r="F3" t="n">
         <v>1087.183829664779</v>
@@ -26796,7 +26796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>790.2021750318791</v>
+        <v>790.2021750318781</v>
       </c>
       <c r="F4" t="n">
         <v>1013.676917805437</v>
@@ -26817,7 +26817,7 @@
         <v>1013.676917805437</v>
       </c>
       <c r="L4" t="n">
-        <v>1013.676917805437</v>
+        <v>1013.676917805438</v>
       </c>
       <c r="M4" t="n">
         <v>1013.676917805437</v>
@@ -26920,22 +26920,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>47.18661671722472</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>47.18661671722467</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>47.18661671722472</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1056.156912425182</v>
+        <v>1056.156912425181</v>
       </c>
       <c r="F3" t="n">
-        <v>31.02691723959651</v>
+        <v>31.02691723959742</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>783.3261292901676</v>
+        <v>783.3261292901667</v>
       </c>
       <c r="F4" t="n">
-        <v>223.4747427735583</v>
+        <v>223.4747427735593</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27039,13 +27039,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711209</v>
+        <v>6.876045741711664</v>
       </c>
       <c r="M4" t="n">
-        <v>783.3261292901676</v>
+        <v>783.3261292901665</v>
       </c>
       <c r="N4" t="n">
-        <v>223.4747427735585</v>
+        <v>223.4747427735593</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722472</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>783.3261292901676</v>
+        <v>783.3261292901667</v>
       </c>
       <c r="N4" t="n">
-        <v>223.4747427735583</v>
+        <v>223.4747427735593</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>5.073243612901081</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.114653472833368</v>
+        <v>3.934278125245373</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>343.1845476281136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27932,19 +27932,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>165.8324532466043</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>130.4674714214992</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27986,13 +27986,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>219.0653363392634</v>
+        <v>220.6315523179333</v>
       </c>
       <c r="V9" t="n">
-        <v>227.4907573863837</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>244.8189374192082</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>163.9118407444349</v>
+        <v>160.3707753569164</v>
       </c>
       <c r="D10" t="n">
         <v>141.7394272765009</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>142.0860676687383</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>279.6469525948796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="C17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="D17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="E17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="F17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="G17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="H17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="I17" t="n">
         <v>41.97878567833999</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="T17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="U17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="V17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="W17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="X17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="C19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="D19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="E19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="F19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="G19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="H19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="I19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="J19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="K19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="L19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="M19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="N19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="O19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="P19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="R19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="S19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="T19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="U19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="V19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="W19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="X19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="C20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="D20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="E20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="F20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="G20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="H20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="I20" t="n">
-        <v>41.97878567833999</v>
+        <v>41.97878567833996</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="T20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="U20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="V20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="W20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="X20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="C22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="D22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="E22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="F22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="G22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="H22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="I22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="J22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="K22" t="n">
-        <v>47.18661671722481</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="L22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="M22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="N22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="O22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="P22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="R22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="S22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="T22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="U22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="V22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="W22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="X22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="C23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="D23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="E23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="F23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="G23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="H23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="I23" t="n">
         <v>41.97878567833999</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="T23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="U23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="V23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="W23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="X23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="C25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="D25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="E25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="F25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="G25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="H25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="I25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="J25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722533</v>
       </c>
       <c r="K25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="L25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="M25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="N25" t="n">
         <v>47.18661671722464</v>
       </c>
       <c r="O25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="P25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="R25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="S25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="T25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="U25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="V25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="W25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="X25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722464</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="C26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="D26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="E26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="F26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="G26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="H26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="I26" t="n">
         <v>41.97878567833999</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="T26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="U26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="V26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="W26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="X26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="C28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="D28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="E28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="F28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="G28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="H28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="I28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="J28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="K28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="L28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="M28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="N28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="O28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="P28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="R28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="S28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="T28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="U28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="V28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="W28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="X28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="C29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="D29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="E29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="F29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="G29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="I29" t="n">
         <v>41.97878567833999</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="T29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="U29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="V29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="W29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="X29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="C31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="D31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="E31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="F31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="G31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="H31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="I31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="J31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="K31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="L31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="M31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="N31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="O31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="P31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="R31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="S31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="T31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="U31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="V31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="W31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="X31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722473</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="C32" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="D32" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="E32" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="F32" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="G32" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="H32" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="I32" t="n">
         <v>41.97878567833999</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="T32" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="U32" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="V32" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="W32" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="X32" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="C34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="D34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="E34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="F34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="G34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="H34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="I34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="J34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="K34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="L34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="M34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="N34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="O34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="P34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="R34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="S34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="T34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="U34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="V34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="W34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="X34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="C35" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="D35" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="E35" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="F35" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="G35" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="H35" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="I35" t="n">
         <v>41.97878567833999</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="T35" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="U35" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="V35" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="W35" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="X35" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="C37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="D37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="E37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="F37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="G37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="H37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="I37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="J37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="K37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="L37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="M37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="N37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="O37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="P37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.18661671722434</v>
+        <v>47.18661671722479</v>
       </c>
       <c r="R37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="S37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="T37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="U37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="V37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="W37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="X37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.18661671722472</v>
+        <v>47.18661671722468</v>
       </c>
     </row>
     <row r="38">
@@ -30411,7 +30411,7 @@
         <v>47.18661671722468</v>
       </c>
       <c r="M40" t="n">
-        <v>47.18661671722468</v>
+        <v>47.18661671722441</v>
       </c>
       <c r="N40" t="n">
         <v>47.18661671722468</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="C41" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="D41" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="E41" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="F41" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="G41" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="H41" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="I41" t="n">
         <v>41.97878567833999</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="T41" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="U41" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="V41" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="W41" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="X41" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="C43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="D43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="E43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="F43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="G43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="H43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="I43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="J43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="K43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="L43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="M43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="N43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="O43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="P43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="R43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="S43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="T43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="U43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="V43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="W43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="X43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722468</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="C44" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="D44" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="E44" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="F44" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="G44" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="H44" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="I44" t="n">
         <v>41.97878567833999</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="T44" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="U44" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="V44" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="W44" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="X44" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="C46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="D46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="E46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="F46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="G46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="H46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="I46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="J46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="K46" t="n">
-        <v>47.18661671722478</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="L46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="M46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="N46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="O46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="P46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="R46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="S46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="T46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="U46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="V46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="W46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="X46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.18661671722467</v>
+        <v>47.18661671722469</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.245856934372589</v>
+        <v>4.245856934372585</v>
       </c>
       <c r="H11" t="n">
-        <v>43.48288232914329</v>
+        <v>43.48288232914325</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6883994623994</v>
+        <v>163.6883994623992</v>
       </c>
       <c r="J11" t="n">
-        <v>360.3617999837059</v>
+        <v>360.3617999837056</v>
       </c>
       <c r="K11" t="n">
-        <v>540.0889240156977</v>
+        <v>540.0889240156972</v>
       </c>
       <c r="L11" t="n">
-        <v>670.0280681710029</v>
+        <v>670.0280681710024</v>
       </c>
       <c r="M11" t="n">
-        <v>745.5353264276514</v>
+        <v>745.5353264276508</v>
       </c>
       <c r="N11" t="n">
-        <v>757.5988674424376</v>
+        <v>757.5988674424369</v>
       </c>
       <c r="O11" t="n">
-        <v>715.3791275512701</v>
+        <v>715.3791275512696</v>
       </c>
       <c r="P11" t="n">
-        <v>610.5595344839468</v>
+        <v>610.5595344839462</v>
       </c>
       <c r="Q11" t="n">
-        <v>458.5047830217283</v>
+        <v>458.5047830217279</v>
       </c>
       <c r="R11" t="n">
-        <v>266.7088106537824</v>
+        <v>266.7088106537822</v>
       </c>
       <c r="S11" t="n">
-        <v>96.75246489201547</v>
+        <v>96.75246489201538</v>
       </c>
       <c r="T11" t="n">
-        <v>18.58623873021602</v>
+        <v>18.586238730216</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3396685547498071</v>
+        <v>0.3396685547498068</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.271733736159826</v>
+        <v>2.271733736159824</v>
       </c>
       <c r="H12" t="n">
-        <v>21.94016529396464</v>
+        <v>21.94016529396462</v>
       </c>
       <c r="I12" t="n">
-        <v>78.21539398620455</v>
+        <v>78.21539398620449</v>
       </c>
       <c r="J12" t="n">
-        <v>214.6290193448194</v>
+        <v>214.6290193448192</v>
       </c>
       <c r="K12" t="n">
-        <v>366.8351796675278</v>
+        <v>366.8351796675274</v>
       </c>
       <c r="L12" t="n">
-        <v>493.2551693359307</v>
+        <v>493.2551693359303</v>
       </c>
       <c r="M12" t="n">
-        <v>575.6055172717242</v>
+        <v>575.6055172717238</v>
       </c>
       <c r="N12" t="n">
-        <v>590.8400825462348</v>
+        <v>590.8400825462343</v>
       </c>
       <c r="O12" t="n">
-        <v>540.5032455502724</v>
+        <v>540.5032455502718</v>
       </c>
       <c r="P12" t="n">
-        <v>433.8015061619584</v>
+        <v>433.8015061619581</v>
       </c>
       <c r="Q12" t="n">
-        <v>289.9848186719105</v>
+        <v>289.9848186719102</v>
       </c>
       <c r="R12" t="n">
-        <v>141.0467665310461</v>
+        <v>141.046766531046</v>
       </c>
       <c r="S12" t="n">
-        <v>42.19645777472306</v>
+        <v>42.19645777472302</v>
       </c>
       <c r="T12" t="n">
-        <v>9.156681155837191</v>
+        <v>9.156681155837182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1494561668526202</v>
+        <v>0.1494561668526201</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.904545251914263</v>
+        <v>1.904545251914261</v>
       </c>
       <c r="H13" t="n">
-        <v>16.93313869429228</v>
+        <v>16.93313869429226</v>
       </c>
       <c r="I13" t="n">
-        <v>57.27486993938531</v>
+        <v>57.27486993938526</v>
       </c>
       <c r="J13" t="n">
-        <v>134.6513493103384</v>
+        <v>134.6513493103383</v>
       </c>
       <c r="K13" t="n">
-        <v>221.273530176948</v>
+        <v>221.2735301769478</v>
       </c>
       <c r="L13" t="n">
-        <v>283.1539368164169</v>
+        <v>283.1539368164167</v>
       </c>
       <c r="M13" t="n">
-        <v>298.546125261433</v>
+        <v>298.5461252614328</v>
       </c>
       <c r="N13" t="n">
-        <v>291.4473656861165</v>
+        <v>291.4473656861162</v>
       </c>
       <c r="O13" t="n">
-        <v>269.1988143342089</v>
+        <v>269.1988143342086</v>
       </c>
       <c r="P13" t="n">
-        <v>230.3460911951577</v>
+        <v>230.3460911951575</v>
       </c>
       <c r="Q13" t="n">
-        <v>159.4796937762025</v>
+        <v>159.4796937762024</v>
       </c>
       <c r="R13" t="n">
-        <v>85.63528014516311</v>
+        <v>85.63528014516304</v>
       </c>
       <c r="S13" t="n">
-        <v>33.19102952654219</v>
+        <v>33.19102952654216</v>
       </c>
       <c r="T13" t="n">
-        <v>8.137602439997304</v>
+        <v>8.137602439997297</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1038842864680508</v>
+        <v>0.1038842864680507</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32467,40 +32467,40 @@
         <v>44.76028701730417</v>
       </c>
       <c r="I20" t="n">
-        <v>168.4971038920659</v>
+        <v>168.497103892066</v>
       </c>
       <c r="J20" t="n">
         <v>370.9482153286876</v>
       </c>
       <c r="K20" t="n">
-        <v>555.9552163727482</v>
+        <v>555.9552163727483</v>
       </c>
       <c r="L20" t="n">
-        <v>689.7116068334658</v>
+        <v>689.7116068334659</v>
       </c>
       <c r="M20" t="n">
-        <v>767.4370558015099</v>
+        <v>767.43705580151</v>
       </c>
       <c r="N20" t="n">
-        <v>779.8549896951182</v>
+        <v>779.8549896951184</v>
       </c>
       <c r="O20" t="n">
-        <v>736.3949526851518</v>
+        <v>736.3949526851519</v>
       </c>
       <c r="P20" t="n">
-        <v>628.4960550174162</v>
+        <v>628.4960550174163</v>
       </c>
       <c r="Q20" t="n">
-        <v>471.9743629576377</v>
+        <v>471.9743629576378</v>
       </c>
       <c r="R20" t="n">
         <v>274.5439647846439</v>
       </c>
       <c r="S20" t="n">
-        <v>99.59477997381369</v>
+        <v>99.5947799738137</v>
       </c>
       <c r="T20" t="n">
-        <v>19.13225010797012</v>
+        <v>19.13225010797013</v>
       </c>
       <c r="U20" t="n">
         <v>0.3496470607967125</v>
@@ -32546,28 +32546,28 @@
         <v>22.5847055936023</v>
       </c>
       <c r="I21" t="n">
-        <v>80.51314210253317</v>
+        <v>80.51314210253318</v>
       </c>
       <c r="J21" t="n">
         <v>220.934215800085</v>
       </c>
       <c r="K21" t="n">
-        <v>377.6117646864921</v>
+        <v>377.6117646864922</v>
       </c>
       <c r="L21" t="n">
         <v>507.7456178071216</v>
       </c>
       <c r="M21" t="n">
-        <v>592.5151871673044</v>
+        <v>592.5151871673045</v>
       </c>
       <c r="N21" t="n">
-        <v>608.1973010876578</v>
+        <v>608.1973010876579</v>
       </c>
       <c r="O21" t="n">
-        <v>556.3817095077854</v>
+        <v>556.3817095077856</v>
       </c>
       <c r="P21" t="n">
-        <v>446.5453733579731</v>
+        <v>446.5453733579732</v>
       </c>
       <c r="Q21" t="n">
         <v>298.5037564015446</v>
@@ -32576,10 +32576,10 @@
         <v>145.1903235163643</v>
       </c>
       <c r="S21" t="n">
-        <v>43.43607093047486</v>
+        <v>43.43607093047487</v>
       </c>
       <c r="T21" t="n">
-        <v>9.425678674169164</v>
+        <v>9.425678674169166</v>
       </c>
       <c r="U21" t="n">
         <v>0.1538467683487895</v>
@@ -32622,43 +32622,43 @@
         <v>1.960495430543044</v>
       </c>
       <c r="H22" t="n">
-        <v>17.43058664610089</v>
+        <v>17.4305866461009</v>
       </c>
       <c r="I22" t="n">
-        <v>58.957444402149</v>
+        <v>58.95744440214902</v>
       </c>
       <c r="J22" t="n">
         <v>138.6070269393932</v>
       </c>
       <c r="K22" t="n">
-        <v>227.7739236576372</v>
+        <v>227.7739236576373</v>
       </c>
       <c r="L22" t="n">
-        <v>291.472202464554</v>
+        <v>291.4722024645541</v>
       </c>
       <c r="M22" t="n">
-        <v>307.3165700804881</v>
+        <v>307.3165700804882</v>
       </c>
       <c r="N22" t="n">
-        <v>300.0092689302825</v>
+        <v>300.0092689302826</v>
       </c>
       <c r="O22" t="n">
-        <v>277.1071177643932</v>
+        <v>277.1071177643933</v>
       </c>
       <c r="P22" t="n">
-        <v>237.1130109813149</v>
+        <v>237.113010981315</v>
       </c>
       <c r="Q22" t="n">
         <v>164.1647582793816</v>
       </c>
       <c r="R22" t="n">
-        <v>88.1510036315081</v>
+        <v>88.15100363150812</v>
       </c>
       <c r="S22" t="n">
         <v>34.16608854864558</v>
       </c>
       <c r="T22" t="n">
-        <v>8.376662294138457</v>
+        <v>8.376662294138459</v>
       </c>
       <c r="U22" t="n">
         <v>0.1069361143932571</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L9" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.598225711743296</v>
-      </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,10 +35334,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="M10" t="n">
         <v>6.598225711743296</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>179.3158954570196</v>
+        <v>179.3158954570193</v>
       </c>
       <c r="K11" t="n">
-        <v>319.9990729707171</v>
+        <v>319.9990729707167</v>
       </c>
       <c r="L11" t="n">
-        <v>434.2616532010157</v>
+        <v>434.2616532010151</v>
       </c>
       <c r="M11" t="n">
-        <v>515.1890932003787</v>
+        <v>515.1890932003781</v>
       </c>
       <c r="N11" t="n">
-        <v>528.1858038458467</v>
+        <v>528.1858038458461</v>
       </c>
       <c r="O11" t="n">
-        <v>485.2809161295834</v>
+        <v>485.2809161295828</v>
       </c>
       <c r="P11" t="n">
-        <v>379.3265387286772</v>
+        <v>379.3265387286767</v>
       </c>
       <c r="Q11" t="n">
-        <v>236.1990931472788</v>
+        <v>236.1990931472784</v>
       </c>
       <c r="R11" t="n">
-        <v>51.12327283965027</v>
+        <v>51.12327283965004</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8999513067477</v>
+        <v>193.8999513067509</v>
       </c>
       <c r="K12" t="n">
-        <v>228.9937406931688</v>
+        <v>228.9937406931684</v>
       </c>
       <c r="L12" t="n">
-        <v>354.7007895560565</v>
+        <v>354.7007895560561</v>
       </c>
       <c r="M12" t="n">
-        <v>433.4714833497059</v>
+        <v>433.4714833497055</v>
       </c>
       <c r="N12" t="n">
-        <v>459.4983704629016</v>
+        <v>459.498370462901</v>
       </c>
       <c r="O12" t="n">
-        <v>397.9070011058279</v>
+        <v>397.9070011058274</v>
       </c>
       <c r="P12" t="n">
-        <v>299.8270987476282</v>
+        <v>299.8270987476278</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.003044585889</v>
+        <v>150.0030445858887</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.29216919366561</v>
+        <v>41.29216919366543</v>
       </c>
       <c r="K13" t="n">
-        <v>199.0040383510651</v>
+        <v>199.0040383510648</v>
       </c>
       <c r="L13" t="n">
-        <v>310.7439620767331</v>
+        <v>310.7439620767328</v>
       </c>
       <c r="M13" t="n">
-        <v>338.1300022232736</v>
+        <v>338.1300022232733</v>
       </c>
       <c r="N13" t="n">
-        <v>335.5795380653451</v>
+        <v>335.5795380653447</v>
       </c>
       <c r="O13" t="n">
-        <v>293.7839422482485</v>
+        <v>293.7839422482483</v>
       </c>
       <c r="P13" t="n">
-        <v>227.6246504600512</v>
+        <v>227.624650460051</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.31765052450815</v>
+        <v>73.31765052450794</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,10 +35659,10 @@
         <v>550.4419260985273</v>
       </c>
       <c r="O14" t="n">
-        <v>506.296741263465</v>
+        <v>793.4872263912765</v>
       </c>
       <c r="P14" t="n">
-        <v>684.4535443899576</v>
+        <v>397.2630592621467</v>
       </c>
       <c r="Q14" t="n">
         <v>461.9836637430929</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.24784682272039</v>
+        <v>45.24784682272032</v>
       </c>
       <c r="K16" t="n">
         <v>205.5044318317543</v>
@@ -35814,16 +35814,16 @@
         <v>346.9004470423287</v>
       </c>
       <c r="N16" t="n">
-        <v>344.1414413095112</v>
+        <v>344.1414413095111</v>
       </c>
       <c r="O16" t="n">
-        <v>301.6922456784329</v>
+        <v>301.6922456784328</v>
       </c>
       <c r="P16" t="n">
         <v>234.3915702462084</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.00271502768722</v>
+        <v>78.00271502768715</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>358.9989259740751</v>
+        <v>189.9023108020013</v>
       </c>
       <c r="K17" t="n">
-        <v>335.8653653277676</v>
+        <v>660.0107778989324</v>
       </c>
       <c r="L17" t="n">
         <v>453.9451918634786</v>
@@ -35896,16 +35896,16 @@
         <v>550.4419260985273</v>
       </c>
       <c r="O17" t="n">
-        <v>506.296741263465</v>
+        <v>704.1548488651679</v>
       </c>
       <c r="P17" t="n">
-        <v>684.4535443899576</v>
+        <v>397.2630592621467</v>
       </c>
       <c r="Q17" t="n">
         <v>461.9836637430929</v>
       </c>
       <c r="R17" t="n">
-        <v>124.6748468434942</v>
+        <v>58.95842697051177</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.43446353994506</v>
+        <v>92.43446353994503</v>
       </c>
       <c r="K19" t="n">
         <v>252.691048548979</v>
@@ -36057,7 +36057,7 @@
         <v>348.8788623956575</v>
       </c>
       <c r="P19" t="n">
-        <v>281.5781869634331</v>
+        <v>281.578186963433</v>
       </c>
       <c r="Q19" t="n">
         <v>125.1893317449119</v>
@@ -36121,28 +36121,28 @@
         <v>358.9989259740751</v>
       </c>
       <c r="K20" t="n">
-        <v>335.8653653277676</v>
+        <v>623.0558504555785</v>
       </c>
       <c r="L20" t="n">
-        <v>453.9451918634786</v>
+        <v>453.9451918634787</v>
       </c>
       <c r="M20" t="n">
-        <v>537.0908225742372</v>
+        <v>537.0908225742373</v>
       </c>
       <c r="N20" t="n">
-        <v>550.4419260985273</v>
+        <v>550.4419260985276</v>
       </c>
       <c r="O20" t="n">
-        <v>793.4872263912761</v>
+        <v>506.2967412634652</v>
       </c>
       <c r="P20" t="n">
-        <v>397.2630592621467</v>
+        <v>397.2630592621468</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.9836637430929</v>
+        <v>461.983663743093</v>
       </c>
       <c r="R20" t="n">
-        <v>124.6748468434942</v>
+        <v>124.6748468434943</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.09658913341826</v>
+        <v>94.09658913341832</v>
       </c>
       <c r="K21" t="n">
-        <v>239.7703257121331</v>
+        <v>239.7703257121332</v>
       </c>
       <c r="L21" t="n">
         <v>369.1912380272474</v>
       </c>
       <c r="M21" t="n">
-        <v>450.381153245286</v>
+        <v>450.3811532452862</v>
       </c>
       <c r="N21" t="n">
-        <v>476.8555890043245</v>
+        <v>476.8555890043247</v>
       </c>
       <c r="O21" t="n">
-        <v>413.785465063341</v>
+        <v>413.7854650633411</v>
       </c>
       <c r="P21" t="n">
-        <v>312.5709659436428</v>
+        <v>312.5709659436429</v>
       </c>
       <c r="Q21" t="n">
         <v>158.5219823155231</v>
@@ -36279,10 +36279,10 @@
         <v>92.43446353994506</v>
       </c>
       <c r="K22" t="n">
-        <v>252.6910485489792</v>
+        <v>252.691048548979</v>
       </c>
       <c r="L22" t="n">
-        <v>366.2488444420948</v>
+        <v>366.2488444420949</v>
       </c>
       <c r="M22" t="n">
         <v>394.0870637595534</v>
@@ -36291,7 +36291,7 @@
         <v>391.3280580267358</v>
       </c>
       <c r="O22" t="n">
-        <v>348.8788623956575</v>
+        <v>348.8788623956576</v>
       </c>
       <c r="P22" t="n">
         <v>281.5781869634331</v>
@@ -36373,7 +36373,7 @@
         <v>506.296741263465</v>
       </c>
       <c r="P23" t="n">
-        <v>684.4535443899576</v>
+        <v>684.4535443899581</v>
       </c>
       <c r="Q23" t="n">
         <v>461.9836637430929</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.43446353994506</v>
+        <v>92.43446353994572</v>
       </c>
       <c r="K25" t="n">
         <v>252.691048548979</v>
@@ -36531,7 +36531,7 @@
         <v>348.8788623956575</v>
       </c>
       <c r="P25" t="n">
-        <v>281.5781869634331</v>
+        <v>281.578186963433</v>
       </c>
       <c r="Q25" t="n">
         <v>125.1893317449119</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>189.9023108020013</v>
+        <v>358.9989259740751</v>
       </c>
       <c r="K26" t="n">
-        <v>660.0107778989324</v>
+        <v>335.8653653277676</v>
       </c>
       <c r="L26" t="n">
         <v>453.9451918634786</v>
@@ -36610,10 +36610,10 @@
         <v>506.296741263465</v>
       </c>
       <c r="P26" t="n">
-        <v>719.0617674336293</v>
+        <v>684.4535443899581</v>
       </c>
       <c r="Q26" t="n">
-        <v>272.3266433003307</v>
+        <v>461.9836637430929</v>
       </c>
       <c r="R26" t="n">
         <v>124.6748468434942</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.43446353994506</v>
+        <v>92.43446353994511</v>
       </c>
       <c r="K28" t="n">
-        <v>252.691048548979</v>
+        <v>252.6910485489791</v>
       </c>
       <c r="L28" t="n">
-        <v>366.2488444420948</v>
+        <v>366.2488444420949</v>
       </c>
       <c r="M28" t="n">
-        <v>394.0870637595534</v>
+        <v>394.0870637595535</v>
       </c>
       <c r="N28" t="n">
         <v>391.3280580267358</v>
       </c>
       <c r="O28" t="n">
-        <v>348.8788623956575</v>
+        <v>348.8788623956576</v>
       </c>
       <c r="P28" t="n">
-        <v>281.5781869634331</v>
+        <v>281.5781869634332</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.1893317449119</v>
+        <v>125.189331744912</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>189.9023108020013</v>
+        <v>358.9989259740751</v>
       </c>
       <c r="K29" t="n">
-        <v>660.0107778989324</v>
+        <v>385.8573076226514</v>
       </c>
       <c r="L29" t="n">
         <v>453.9451918634786</v>
       </c>
       <c r="M29" t="n">
-        <v>537.0908225742372</v>
+        <v>986.6043560670697</v>
       </c>
       <c r="N29" t="n">
         <v>550.4419260985273</v>
@@ -36847,10 +36847,10 @@
         <v>506.296741263465</v>
       </c>
       <c r="P29" t="n">
-        <v>719.0617674336293</v>
+        <v>397.2630592621467</v>
       </c>
       <c r="Q29" t="n">
-        <v>272.3266433003307</v>
+        <v>249.6686730831882</v>
       </c>
       <c r="R29" t="n">
         <v>124.6748468434942</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.43446353994506</v>
+        <v>92.43446353994511</v>
       </c>
       <c r="K31" t="n">
-        <v>252.691048548979</v>
+        <v>252.6910485489791</v>
       </c>
       <c r="L31" t="n">
-        <v>366.2488444420948</v>
+        <v>366.2488444420949</v>
       </c>
       <c r="M31" t="n">
-        <v>394.0870637595534</v>
+        <v>394.0870637595535</v>
       </c>
       <c r="N31" t="n">
-        <v>391.3280580267358</v>
+        <v>391.3280580267359</v>
       </c>
       <c r="O31" t="n">
-        <v>348.8788623956575</v>
+        <v>348.8788623956576</v>
       </c>
       <c r="P31" t="n">
-        <v>281.5781869634331</v>
+        <v>281.5781869634332</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.1893317449119</v>
+        <v>125.189331744912</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>506.296741263465</v>
       </c>
       <c r="P32" t="n">
-        <v>684.4535443899572</v>
+        <v>684.4535443899591</v>
       </c>
       <c r="Q32" t="n">
         <v>461.9836637430929</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.43446353994511</v>
+        <v>92.43446353994507</v>
       </c>
       <c r="K34" t="n">
-        <v>252.6910485489791</v>
+        <v>252.691048548979</v>
       </c>
       <c r="L34" t="n">
         <v>366.2488444420948</v>
@@ -37321,7 +37321,7 @@
         <v>506.296741263465</v>
       </c>
       <c r="P35" t="n">
-        <v>684.4535443899572</v>
+        <v>684.4535443899581</v>
       </c>
       <c r="Q35" t="n">
         <v>461.9836637430929</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.43446353994511</v>
+        <v>92.43446353994507</v>
       </c>
       <c r="K37" t="n">
-        <v>252.6910485489791</v>
+        <v>252.691048548979</v>
       </c>
       <c r="L37" t="n">
-        <v>366.2488444420949</v>
+        <v>366.2488444420948</v>
       </c>
       <c r="M37" t="n">
         <v>394.0870637595534</v>
@@ -37482,7 +37482,7 @@
         <v>281.5781869634331</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.1893317449116</v>
+        <v>125.189331744912</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>358.9989259740751</v>
+        <v>324.3907029304035</v>
       </c>
       <c r="K38" t="n">
         <v>335.8653653277676</v>
@@ -37561,7 +37561,7 @@
         <v>719.0617674336293</v>
       </c>
       <c r="Q38" t="n">
-        <v>427.3754406994217</v>
+        <v>461.9836637430929</v>
       </c>
       <c r="R38" t="n">
         <v>124.6748468434942</v>
@@ -37707,7 +37707,7 @@
         <v>366.2488444420948</v>
       </c>
       <c r="M40" t="n">
-        <v>394.0870637595534</v>
+        <v>394.0870637595531</v>
       </c>
       <c r="N40" t="n">
         <v>391.3280580267358</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>358.9989259740751</v>
+        <v>324.3907029304035</v>
       </c>
       <c r="K41" t="n">
         <v>335.8653653277676</v>
@@ -37795,7 +37795,7 @@
         <v>506.296741263465</v>
       </c>
       <c r="P41" t="n">
-        <v>684.4535443899581</v>
+        <v>719.0617674336293</v>
       </c>
       <c r="Q41" t="n">
         <v>461.9836637430929</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.43446353994506</v>
+        <v>92.43446353994507</v>
       </c>
       <c r="K43" t="n">
         <v>252.691048548979</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>358.9989259740751</v>
+        <v>322.0439985307211</v>
       </c>
       <c r="K44" t="n">
-        <v>335.8653653277676</v>
+        <v>660.0107778989324</v>
       </c>
       <c r="L44" t="n">
         <v>453.9451918634786</v>
@@ -38032,13 +38032,13 @@
         <v>506.296741263465</v>
       </c>
       <c r="P44" t="n">
-        <v>719.0617674336293</v>
+        <v>397.2630592621467</v>
       </c>
       <c r="Q44" t="n">
         <v>461.9836637430929</v>
       </c>
       <c r="R44" t="n">
-        <v>90.06662379982282</v>
+        <v>124.6748468434942</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.43446353994506</v>
+        <v>92.43446353994509</v>
       </c>
       <c r="K46" t="n">
-        <v>252.6910485489791</v>
+        <v>252.691048548979</v>
       </c>
       <c r="L46" t="n">
         <v>366.2488444420948</v>
@@ -38187,7 +38187,7 @@
         <v>391.3280580267358</v>
       </c>
       <c r="O46" t="n">
-        <v>348.8788623956575</v>
+        <v>348.8788623956576</v>
       </c>
       <c r="P46" t="n">
         <v>281.5781869634331</v>
